--- a/cs696_scraping/structured/revenue clean data/2017_revenue_clean.xlsx
+++ b/cs696_scraping/structured/revenue clean data/2017_revenue_clean.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kajal\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Umass spring 20\696\KT\CS696\cs696_scraping\structured\revenue clean data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0731356B-6AB9-442A-B84E-4A6A683913FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DF4275-72CA-4B90-90AA-BF8FC2DCCC4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AEB3969C-8F01-4148-A956-291901493361}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
   <si>
     <t>year</t>
   </si>
@@ -104,9 +104,6 @@
     <t>IBM</t>
   </si>
   <si>
-    <t>COST</t>
-  </si>
-  <si>
     <t>UNP</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>TXN</t>
   </si>
   <si>
-    <t>NKE</t>
-  </si>
-  <si>
     <t>TSLA</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>BIIB</t>
   </si>
   <si>
-    <t>GPN</t>
-  </si>
-  <si>
     <t>ITW</t>
   </si>
   <si>
@@ -245,9 +236,6 @@
     <t>ADI</t>
   </si>
   <si>
-    <t>ETN</t>
-  </si>
-  <si>
     <t>KMI</t>
   </si>
   <si>
@@ -374,9 +362,6 @@
     <t>LYB</t>
   </si>
   <si>
-    <t>KR</t>
-  </si>
-  <si>
     <t>HSY</t>
   </si>
   <si>
@@ -446,9 +431,6 @@
     <t>PAYC</t>
   </si>
   <si>
-    <t>MAA</t>
-  </si>
-  <si>
     <t>CTL</t>
   </si>
   <si>
@@ -620,9 +602,6 @@
     <t>MRO</t>
   </si>
   <si>
-    <t>RPM</t>
-  </si>
-  <si>
     <t>GWRE</t>
   </si>
   <si>
@@ -635,9 +614,6 @@
     <t>WHR</t>
   </si>
   <si>
-    <t>CF</t>
-  </si>
-  <si>
     <t>ALB</t>
   </si>
   <si>
@@ -710,9 +686,6 @@
     <t>KIM</t>
   </si>
   <si>
-    <t>BIO</t>
-  </si>
-  <si>
     <t>AIV</t>
   </si>
   <si>
@@ -731,12 +704,6 @@
     <t>RS</t>
   </si>
   <si>
-    <t>QGEN</t>
-  </si>
-  <si>
-    <t>GNTX</t>
-  </si>
-  <si>
     <t>ST</t>
   </si>
   <si>
@@ -794,9 +761,6 @@
     <t>MDB</t>
   </si>
   <si>
-    <t>CACI</t>
-  </si>
-  <si>
     <t>PLNT</t>
   </si>
   <si>
@@ -815,9 +779,6 @@
     <t>DNKN</t>
   </si>
   <si>
-    <t>ARW</t>
-  </si>
-  <si>
     <t>OSK</t>
   </si>
   <si>
@@ -899,12 +860,6 @@
     <t>HBI</t>
   </si>
   <si>
-    <t>LSI</t>
-  </si>
-  <si>
-    <t>SRC</t>
-  </si>
-  <si>
     <t>HE</t>
   </si>
   <si>
@@ -1052,9 +1007,6 @@
     <t>MAC</t>
   </si>
   <si>
-    <t>MUR</t>
-  </si>
-  <si>
     <t>PEGA</t>
   </si>
   <si>
@@ -1088,9 +1040,6 @@
     <t>DKS</t>
   </si>
   <si>
-    <t>OLLI</t>
-  </si>
-  <si>
     <t>FLR</t>
   </si>
   <si>
@@ -1133,9 +1082,6 @@
     <t>BGCP</t>
   </si>
   <si>
-    <t>PAG</t>
-  </si>
-  <si>
     <t>AMCX</t>
   </si>
   <si>
@@ -1160,9 +1106,6 @@
     <t>RRC</t>
   </si>
   <si>
-    <t>CDEV</t>
-  </si>
-  <si>
     <t>WMT</t>
   </si>
   <si>
@@ -1199,12 +1142,6 @@
     <t>CINF</t>
   </si>
   <si>
-    <t>CAG</t>
-  </si>
-  <si>
-    <t>ULTA</t>
-  </si>
-  <si>
     <t>LBRDK</t>
   </si>
   <si>
@@ -1292,9 +1229,6 @@
     <t>MIC</t>
   </si>
   <si>
-    <t>CPA</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -1328,9 +1262,6 @@
     <t>TWLO</t>
   </si>
   <si>
-    <t>NUE</t>
-  </si>
-  <si>
     <t>CBOE</t>
   </si>
   <si>
@@ -1356,12 +1287,6 @@
   </si>
   <si>
     <t>VER</t>
-  </si>
-  <si>
-    <t>DOX</t>
-  </si>
-  <si>
-    <t>IRM</t>
   </si>
   <si>
     <t>CZR</t>
@@ -1446,7 +1371,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1756,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04A5339-ED55-4C51-9D76-3E4C006F38B6}">
-  <dimension ref="A1:D454"/>
+  <dimension ref="A1:D429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="B291" sqref="B291"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249:XFD249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1965,7 +1901,7 @@
         <v>2017</v>
       </c>
       <c r="B15" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="C15">
         <v>104169</v>
@@ -1979,7 +1915,7 @@
         <v>2017</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="C16">
         <v>1613103</v>
@@ -2080,10 +2016,10 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>909832</v>
+        <v>100885</v>
       </c>
       <c r="D23">
-        <v>79139000000</v>
+        <v>21240000000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2094,10 +2030,10 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>100885</v>
+        <v>59478</v>
       </c>
       <c r="D24">
-        <v>21240000000</v>
+        <v>22871300000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -2108,10 +2044,10 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>59478</v>
+        <v>97476</v>
       </c>
       <c r="D25">
-        <v>22871300000</v>
+        <v>3750000000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -2122,10 +2058,10 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>97476</v>
+        <v>1318605</v>
       </c>
       <c r="D26">
-        <v>3750000000</v>
+        <v>11758751000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -2136,10 +2072,10 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>320187</v>
+        <v>804328</v>
       </c>
       <c r="D27">
-        <v>3750000000</v>
+        <v>22291000000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -2150,10 +2086,10 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>1318605</v>
+        <v>1053507</v>
       </c>
       <c r="D28">
-        <v>11758751000</v>
+        <v>6663900000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -2164,10 +2100,10 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>804328</v>
-      </c>
-      <c r="D29">
-        <v>22291000000</v>
+        <v>64803</v>
+      </c>
+      <c r="D29" s="1">
+        <v>184765000000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -2178,10 +2114,10 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>1053507</v>
+        <v>882095</v>
       </c>
       <c r="D30">
-        <v>6663900000</v>
+        <v>26107000000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -2189,13 +2125,13 @@
         <v>2017</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>359</v>
       </c>
       <c r="C31">
-        <v>64803</v>
-      </c>
-      <c r="D31" s="1">
-        <v>184765000000</v>
+        <v>1091667</v>
+      </c>
+      <c r="D31">
+        <v>10602000000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -2203,13 +2139,13 @@
         <v>2017</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32">
-        <v>882095</v>
+        <v>701221</v>
       </c>
       <c r="D32">
-        <v>26107000000</v>
+        <v>41616000000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -2217,13 +2153,13 @@
         <v>2017</v>
       </c>
       <c r="B33" t="s">
-        <v>378</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>1091667</v>
+        <v>1156375</v>
       </c>
       <c r="D33">
-        <v>10602000000</v>
+        <v>3644700000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -2234,10 +2170,10 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>701221</v>
+        <v>109198</v>
       </c>
       <c r="D34">
-        <v>41616000000</v>
+        <v>33183744000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -2248,10 +2184,10 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>1156375</v>
+        <v>1156039</v>
       </c>
       <c r="D35">
-        <v>3644700000</v>
+        <v>90039400000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -2262,10 +2198,10 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>109198</v>
+        <v>64040</v>
       </c>
       <c r="D36">
-        <v>33183744000</v>
+        <v>1589000000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -2276,10 +2212,10 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>1156039</v>
+        <v>896878</v>
       </c>
       <c r="D37">
-        <v>90039400000</v>
+        <v>5177000000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -2290,10 +2226,10 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>64040</v>
+        <v>92122</v>
       </c>
       <c r="D38">
-        <v>1589000000</v>
+        <v>1652000000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -2304,10 +2240,10 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>896878</v>
+        <v>715957</v>
       </c>
       <c r="D39">
-        <v>5177000000</v>
+        <v>12586000000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -2318,10 +2254,10 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>92122</v>
+        <v>798354</v>
       </c>
       <c r="D40">
-        <v>1652000000</v>
+        <v>5696000000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -2332,10 +2268,10 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>715957</v>
+        <v>1035267</v>
       </c>
       <c r="D41">
-        <v>12586000000</v>
+        <v>3128900000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -2343,13 +2279,13 @@
         <v>2017</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="C42">
-        <v>798354</v>
+        <v>1555280</v>
       </c>
       <c r="D42">
-        <v>5696000000</v>
+        <v>5307000000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -2357,13 +2293,13 @@
         <v>2017</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43">
-        <v>1035267</v>
+        <v>21665</v>
       </c>
       <c r="D43">
-        <v>3128900000</v>
+        <v>15454000000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -2371,13 +2307,13 @@
         <v>2017</v>
       </c>
       <c r="B44" t="s">
-        <v>379</v>
+        <v>42</v>
       </c>
       <c r="C44">
-        <v>1555280</v>
+        <v>1047122</v>
       </c>
       <c r="D44">
-        <v>5307000000</v>
+        <v>25348000000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -2385,13 +2321,13 @@
         <v>2017</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>402</v>
       </c>
       <c r="C45">
-        <v>21665</v>
+        <v>1578845</v>
       </c>
       <c r="D45">
-        <v>15454000000</v>
+        <v>15940700000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -2399,13 +2335,13 @@
         <v>2017</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46">
-        <v>1047122</v>
+        <v>723125</v>
       </c>
       <c r="D46">
-        <v>25348000000</v>
+        <v>20322000000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -2413,13 +2349,13 @@
         <v>2017</v>
       </c>
       <c r="B47" t="s">
-        <v>424</v>
+        <v>44</v>
       </c>
       <c r="C47">
-        <v>1578845</v>
+        <v>875320</v>
       </c>
       <c r="D47">
-        <v>15940700000</v>
+        <v>651634000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -2430,10 +2366,10 @@
         <v>45</v>
       </c>
       <c r="C48">
-        <v>723125</v>
+        <v>875045</v>
       </c>
       <c r="D48">
-        <v>20322000000</v>
+        <v>12273900000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -2444,10 +2380,10 @@
         <v>46</v>
       </c>
       <c r="C49">
-        <v>875320</v>
+        <v>49826</v>
       </c>
       <c r="D49">
-        <v>651634000</v>
+        <v>14314000000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -2458,10 +2394,10 @@
         <v>47</v>
       </c>
       <c r="C50">
-        <v>875045</v>
+        <v>885725</v>
       </c>
       <c r="D50">
-        <v>12273900000</v>
+        <v>9048000000</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -2472,10 +2408,10 @@
         <v>48</v>
       </c>
       <c r="C51">
-        <v>1123360</v>
+        <v>6951</v>
       </c>
       <c r="D51">
-        <v>12273900000</v>
+        <v>14537000000</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -2486,10 +2422,10 @@
         <v>49</v>
       </c>
       <c r="C52">
-        <v>49826</v>
+        <v>27419</v>
       </c>
       <c r="D52">
-        <v>14314000000</v>
+        <v>71879000000</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -2500,10 +2436,10 @@
         <v>50</v>
       </c>
       <c r="C53">
-        <v>885725</v>
+        <v>702165</v>
       </c>
       <c r="D53">
-        <v>9048000000</v>
+        <v>10551000000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -2514,10 +2450,10 @@
         <v>51</v>
       </c>
       <c r="C54">
-        <v>6951</v>
+        <v>316709</v>
       </c>
       <c r="D54">
-        <v>14537000000</v>
+        <v>8618000000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -2528,10 +2464,10 @@
         <v>52</v>
       </c>
       <c r="C55">
-        <v>27419</v>
+        <v>315293</v>
       </c>
       <c r="D55">
-        <v>71879000000</v>
+        <v>2909000000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -2542,10 +2478,10 @@
         <v>53</v>
       </c>
       <c r="C56">
-        <v>702165</v>
+        <v>823768</v>
       </c>
       <c r="D56">
-        <v>10551000000</v>
+        <v>14485000000</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -2556,10 +2492,10 @@
         <v>54</v>
       </c>
       <c r="C57">
-        <v>316709</v>
+        <v>2488</v>
       </c>
       <c r="D57">
-        <v>8618000000</v>
+        <v>1480000000</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -2570,10 +2506,10 @@
         <v>55</v>
       </c>
       <c r="C58">
-        <v>315293</v>
+        <v>1101239</v>
       </c>
       <c r="D58">
-        <v>2909000000</v>
+        <v>4368428000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -2584,10 +2520,10 @@
         <v>56</v>
       </c>
       <c r="C59">
-        <v>823768</v>
+        <v>1571949</v>
       </c>
       <c r="D59">
-        <v>14485000000</v>
+        <v>5834000000</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -2598,10 +2534,10 @@
         <v>57</v>
       </c>
       <c r="C60">
-        <v>2488</v>
+        <v>4904</v>
       </c>
       <c r="D60">
-        <v>1480000000</v>
+        <v>15424900000</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -2612,10 +2548,10 @@
         <v>58</v>
       </c>
       <c r="C61">
-        <v>1101239</v>
+        <v>49071</v>
       </c>
       <c r="D61">
-        <v>4368428000</v>
+        <v>13189000000</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -2626,10 +2562,10 @@
         <v>59</v>
       </c>
       <c r="C62">
-        <v>1571949</v>
+        <v>1099800</v>
       </c>
       <c r="D62">
-        <v>5834000000</v>
+        <v>3435300000</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -2640,10 +2576,10 @@
         <v>60</v>
       </c>
       <c r="C63">
-        <v>4904</v>
+        <v>707549</v>
       </c>
       <c r="D63">
-        <v>15424900000</v>
+        <v>8013620000</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -2654,10 +2590,10 @@
         <v>61</v>
       </c>
       <c r="C64">
-        <v>49071</v>
+        <v>718877</v>
       </c>
       <c r="D64">
-        <v>13189000000</v>
+        <v>7017000000</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -2668,10 +2604,10 @@
         <v>62</v>
       </c>
       <c r="C65">
-        <v>1099800</v>
+        <v>769397</v>
       </c>
       <c r="D65">
-        <v>3435300000</v>
+        <v>2056600000</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -2682,10 +2618,10 @@
         <v>63</v>
       </c>
       <c r="C66">
-        <v>707549</v>
+        <v>10456</v>
       </c>
       <c r="D66">
-        <v>8013620000</v>
+        <v>10163000000</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -2696,10 +2632,10 @@
         <v>64</v>
       </c>
       <c r="C67">
-        <v>718877</v>
+        <v>1110803</v>
       </c>
       <c r="D67">
-        <v>7017000000</v>
+        <v>2752000000</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -2710,10 +2646,10 @@
         <v>65</v>
       </c>
       <c r="C68">
-        <v>769397</v>
+        <v>1059556</v>
       </c>
       <c r="D68">
-        <v>2056600000</v>
+        <v>4204100000</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -2724,10 +2660,10 @@
         <v>66</v>
       </c>
       <c r="C69">
-        <v>10456</v>
+        <v>6281</v>
       </c>
       <c r="D69">
-        <v>10163000000</v>
+        <v>5107503000</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -2738,10 +2674,10 @@
         <v>67</v>
       </c>
       <c r="C70">
-        <v>1110803</v>
+        <v>1506307</v>
       </c>
       <c r="D70">
-        <v>2752000000</v>
+        <v>13705000000</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -2752,10 +2688,10 @@
         <v>68</v>
       </c>
       <c r="C71">
-        <v>1059556</v>
+        <v>1048286</v>
       </c>
       <c r="D71">
-        <v>4204100000</v>
+        <v>22894000000</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -2766,10 +2702,10 @@
         <v>69</v>
       </c>
       <c r="C72">
-        <v>6281</v>
+        <v>899051</v>
       </c>
       <c r="D72">
-        <v>5107503000</v>
+        <v>38524000000</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -2777,13 +2713,13 @@
         <v>2017</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>361</v>
       </c>
       <c r="C73">
-        <v>1551182</v>
+        <v>30554</v>
       </c>
       <c r="D73">
-        <v>5107503000</v>
+        <v>7053000000</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -2791,13 +2727,13 @@
         <v>2017</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74">
-        <v>1506307</v>
+        <v>1099219</v>
       </c>
       <c r="D74">
-        <v>13705000000</v>
+        <v>62308000000</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -2805,13 +2741,13 @@
         <v>2017</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75">
-        <v>1048286</v>
+        <v>1137774</v>
       </c>
       <c r="D75">
-        <v>22894000000</v>
+        <v>59689000000</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -2819,13 +2755,13 @@
         <v>2017</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76">
-        <v>899051</v>
+        <v>1071739</v>
       </c>
       <c r="D76">
-        <v>38524000000</v>
+        <v>48382000000</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -2833,13 +2769,13 @@
         <v>2017</v>
       </c>
       <c r="B77" t="s">
-        <v>380</v>
+        <v>73</v>
       </c>
       <c r="C77">
-        <v>30554</v>
+        <v>797468</v>
       </c>
       <c r="D77">
-        <v>7053000000</v>
+        <v>12508000000</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -2850,10 +2786,10 @@
         <v>74</v>
       </c>
       <c r="C78">
-        <v>1099219</v>
+        <v>72903</v>
       </c>
       <c r="D78">
-        <v>62308000000</v>
+        <v>11404000000</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -2864,10 +2800,10 @@
         <v>75</v>
       </c>
       <c r="C79">
-        <v>1137774</v>
+        <v>1058290</v>
       </c>
       <c r="D79">
-        <v>59689000000</v>
+        <v>14810000000</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -2875,13 +2811,13 @@
         <v>2017</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="C80">
-        <v>1071739</v>
+        <v>86312</v>
       </c>
       <c r="D80">
-        <v>48382000000</v>
+        <v>7451000000</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -2889,13 +2825,13 @@
         <v>2017</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81">
-        <v>797468</v>
+        <v>27904</v>
       </c>
       <c r="D81">
-        <v>12508000000</v>
+        <v>41244000000</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -2903,13 +2839,13 @@
         <v>2017</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82">
-        <v>72903</v>
+        <v>1041061</v>
       </c>
       <c r="D82">
-        <v>11404000000</v>
+        <v>5878000000</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -2917,13 +2853,13 @@
         <v>2017</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="C83">
-        <v>1058290</v>
+        <v>1598014</v>
       </c>
       <c r="D83">
-        <v>14810000000</v>
+        <v>3599700000</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -2931,13 +2867,13 @@
         <v>2017</v>
       </c>
       <c r="B84" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="C84">
-        <v>86312</v>
+        <v>1585689</v>
       </c>
       <c r="D84">
-        <v>7451000000</v>
+        <v>9140000000</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -2945,13 +2881,13 @@
         <v>2017</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C85">
-        <v>27904</v>
+        <v>712515</v>
       </c>
       <c r="D85">
-        <v>41244000000</v>
+        <v>4845000000</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -2959,13 +2895,13 @@
         <v>2017</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C86">
-        <v>1041061</v>
+        <v>1039684</v>
       </c>
       <c r="D86">
-        <v>5878000000</v>
+        <v>12173907000</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -2973,13 +2909,13 @@
         <v>2017</v>
       </c>
       <c r="B87" t="s">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="C87">
-        <v>1598014</v>
+        <v>898173</v>
       </c>
       <c r="D87">
-        <v>3599700000</v>
+        <v>8977726000</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -2987,13 +2923,13 @@
         <v>2017</v>
       </c>
       <c r="B88" t="s">
-        <v>426</v>
+        <v>81</v>
       </c>
       <c r="C88">
-        <v>1585689</v>
+        <v>833444</v>
       </c>
       <c r="D88">
-        <v>9140000000</v>
+        <v>30172000000</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -3004,10 +2940,10 @@
         <v>82</v>
       </c>
       <c r="C89">
-        <v>712515</v>
+        <v>1260221</v>
       </c>
       <c r="D89">
-        <v>4845000000</v>
+        <v>3504286000</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -3015,13 +2951,13 @@
         <v>2017</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>405</v>
       </c>
       <c r="C90">
-        <v>1039684</v>
+        <v>1327811</v>
       </c>
       <c r="D90">
-        <v>12173907000</v>
+        <v>2143050000</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -3029,13 +2965,13 @@
         <v>2017</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C91">
-        <v>898173</v>
+        <v>68505</v>
       </c>
       <c r="D91">
-        <v>8977726000</v>
+        <v>6380000000</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -3043,13 +2979,13 @@
         <v>2017</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C92">
-        <v>833444</v>
+        <v>788784</v>
       </c>
       <c r="D92">
-        <v>30172000000</v>
+        <v>9084000000</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -3057,13 +2993,13 @@
         <v>2017</v>
       </c>
       <c r="B93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C93">
-        <v>1260221</v>
+        <v>72741</v>
       </c>
       <c r="D93">
-        <v>3504286000</v>
+        <v>7751952000</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -3071,13 +3007,13 @@
         <v>2017</v>
       </c>
       <c r="B94" t="s">
-        <v>427</v>
+        <v>86</v>
       </c>
       <c r="C94">
-        <v>1327811</v>
+        <v>1034054</v>
       </c>
       <c r="D94">
-        <v>2143050000</v>
+        <v>1727674000</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -3088,10 +3024,10 @@
         <v>87</v>
       </c>
       <c r="C95">
-        <v>68505</v>
+        <v>1175454</v>
       </c>
       <c r="D95">
-        <v>6380000000</v>
+        <v>2249538000</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -3102,10 +3038,10 @@
         <v>88</v>
       </c>
       <c r="C96">
-        <v>788784</v>
-      </c>
-      <c r="D96">
-        <v>9084000000</v>
+        <v>927653</v>
+      </c>
+      <c r="D96" s="1">
+        <v>198533000000</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -3116,10 +3052,10 @@
         <v>89</v>
       </c>
       <c r="C97">
-        <v>72741</v>
+        <v>319201</v>
       </c>
       <c r="D97">
-        <v>7751952000</v>
+        <v>3480014000</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -3130,10 +3066,10 @@
         <v>90</v>
       </c>
       <c r="C98">
-        <v>1034054</v>
+        <v>827052</v>
       </c>
       <c r="D98">
-        <v>1727674000</v>
+        <v>12320000000</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -3141,13 +3077,13 @@
         <v>2017</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
+        <v>363</v>
       </c>
       <c r="C99">
-        <v>1175454</v>
+        <v>1512673</v>
       </c>
       <c r="D99">
-        <v>2249538000</v>
+        <v>2214253000</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -3155,13 +3091,13 @@
         <v>2017</v>
       </c>
       <c r="B100" t="s">
-        <v>92</v>
+        <v>364</v>
       </c>
       <c r="C100">
-        <v>927653</v>
-      </c>
-      <c r="D100" s="1">
-        <v>198533000000</v>
+        <v>922224</v>
+      </c>
+      <c r="D100">
+        <v>7447000000</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -3169,13 +3105,13 @@
         <v>2017</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C101">
-        <v>319201</v>
+        <v>866787</v>
       </c>
       <c r="D101">
-        <v>3480014000</v>
+        <v>10888676000</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -3183,13 +3119,13 @@
         <v>2017</v>
       </c>
       <c r="B102" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C102">
-        <v>827052</v>
+        <v>93556</v>
       </c>
       <c r="D102">
-        <v>12320000000</v>
+        <v>12747200000</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -3197,13 +3133,13 @@
         <v>2017</v>
       </c>
       <c r="B103" t="s">
-        <v>382</v>
+        <v>93</v>
       </c>
       <c r="C103">
-        <v>1512673</v>
+        <v>1418091</v>
       </c>
       <c r="D103">
-        <v>2214253000</v>
+        <v>2443299000</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -3211,13 +3147,13 @@
         <v>2017</v>
       </c>
       <c r="B104" t="s">
-        <v>383</v>
+        <v>94</v>
       </c>
       <c r="C104">
-        <v>922224</v>
+        <v>1353283</v>
       </c>
       <c r="D104">
-        <v>7447000000</v>
+        <v>1270788000</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -3228,10 +3164,10 @@
         <v>95</v>
       </c>
       <c r="C105">
-        <v>866787</v>
+        <v>827054</v>
       </c>
       <c r="D105">
-        <v>10888676000</v>
+        <v>3407807000</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -3242,10 +3178,10 @@
         <v>96</v>
       </c>
       <c r="C106">
-        <v>93556</v>
+        <v>26172</v>
       </c>
       <c r="D106">
-        <v>12747200000</v>
+        <v>20428000000</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -3256,10 +3192,10 @@
         <v>97</v>
       </c>
       <c r="C107">
-        <v>1418091</v>
+        <v>936340</v>
       </c>
       <c r="D107">
-        <v>2443299000</v>
+        <v>12607000000</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -3270,10 +3206,10 @@
         <v>98</v>
       </c>
       <c r="C108">
-        <v>1353283</v>
+        <v>804753</v>
       </c>
       <c r="D108">
-        <v>1270788000</v>
+        <v>5142272000</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -3284,10 +3220,10 @@
         <v>99</v>
       </c>
       <c r="C109">
-        <v>827054</v>
+        <v>1408198</v>
       </c>
       <c r="D109">
-        <v>3407807000</v>
+        <v>334779000</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -3298,10 +3234,10 @@
         <v>100</v>
       </c>
       <c r="C110">
-        <v>26172</v>
+        <v>100493</v>
       </c>
       <c r="D110">
-        <v>20428000000</v>
+        <v>38260000000</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -3312,10 +3248,10 @@
         <v>101</v>
       </c>
       <c r="C111">
-        <v>936340</v>
+        <v>1057352</v>
       </c>
       <c r="D111">
-        <v>12607000000</v>
+        <v>965230000</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -3326,10 +3262,10 @@
         <v>102</v>
       </c>
       <c r="C112">
-        <v>804753</v>
+        <v>1013462</v>
       </c>
       <c r="D112">
-        <v>5142272000</v>
+        <v>1095250000</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -3337,13 +3273,13 @@
         <v>2017</v>
       </c>
       <c r="B113" t="s">
-        <v>103</v>
+        <v>365</v>
       </c>
       <c r="C113">
-        <v>1408198</v>
+        <v>1038357</v>
       </c>
       <c r="D113">
-        <v>334779000</v>
+        <v>5455000000</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -3351,13 +3287,13 @@
         <v>2017</v>
       </c>
       <c r="B114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C114">
-        <v>100493</v>
+        <v>874716</v>
       </c>
       <c r="D114">
-        <v>38260000000</v>
+        <v>1969058000</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -3365,13 +3301,13 @@
         <v>2017</v>
       </c>
       <c r="B115" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C115">
-        <v>1057352</v>
+        <v>1300514</v>
       </c>
       <c r="D115">
-        <v>965230000</v>
+        <v>12882000000</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -3379,13 +3315,13 @@
         <v>2017</v>
       </c>
       <c r="B116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C116">
-        <v>1013462</v>
+        <v>883241</v>
       </c>
       <c r="D116">
-        <v>1095250000</v>
+        <v>2724880000</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -3393,13 +3329,13 @@
         <v>2017</v>
       </c>
       <c r="B117" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="C117">
-        <v>1038357</v>
+        <v>1327567</v>
       </c>
       <c r="D117">
-        <v>5455000000</v>
+        <v>509100000</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -3407,13 +3343,13 @@
         <v>2017</v>
       </c>
       <c r="B118" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C118">
-        <v>874716</v>
+        <v>743988</v>
       </c>
       <c r="D118">
-        <v>1969058000</v>
+        <v>2349330000</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -3421,13 +3357,13 @@
         <v>2017</v>
       </c>
       <c r="B119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C119">
-        <v>1300514</v>
+        <v>1037540</v>
       </c>
       <c r="D119">
-        <v>12882000000</v>
+        <v>2602076000</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -3435,13 +3371,13 @@
         <v>2017</v>
       </c>
       <c r="B120" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C120">
-        <v>883241</v>
+        <v>1489393</v>
       </c>
       <c r="D120">
-        <v>2724880000</v>
+        <v>34484000000</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -3449,13 +3385,13 @@
         <v>2017</v>
       </c>
       <c r="B121" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="C121">
-        <v>1327567</v>
+        <v>899866</v>
       </c>
       <c r="D121">
-        <v>509100000</v>
+        <v>3551100000</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -3463,13 +3399,13 @@
         <v>2017</v>
       </c>
       <c r="B122" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C122">
-        <v>743988</v>
+        <v>47111</v>
       </c>
       <c r="D122">
-        <v>2349330000</v>
+        <v>7515426000</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -3477,13 +3413,13 @@
         <v>2017</v>
       </c>
       <c r="B123" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C123">
-        <v>1037540</v>
+        <v>740260</v>
       </c>
       <c r="D123">
-        <v>2602076000</v>
+        <v>3574149000</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -3491,13 +3427,13 @@
         <v>2017</v>
       </c>
       <c r="B124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C124">
-        <v>1489393</v>
+        <v>1093557</v>
       </c>
       <c r="D124">
-        <v>34484000000</v>
+        <v>718500000</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -3505,13 +3441,13 @@
         <v>2017</v>
       </c>
       <c r="B125" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C125">
-        <v>56873</v>
+        <v>874766</v>
       </c>
       <c r="D125">
-        <v>34484000000</v>
+        <v>16974000000</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -3519,13 +3455,13 @@
         <v>2017</v>
       </c>
       <c r="B126" t="s">
-        <v>428</v>
+        <v>113</v>
       </c>
       <c r="C126">
-        <v>899866</v>
+        <v>1097149</v>
       </c>
       <c r="D126">
-        <v>3551100000</v>
+        <v>1473413000</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -3533,13 +3469,13 @@
         <v>2017</v>
       </c>
       <c r="B127" t="s">
-        <v>114</v>
+        <v>367</v>
       </c>
       <c r="C127">
-        <v>47111</v>
+        <v>21076</v>
       </c>
       <c r="D127">
-        <v>7515426000</v>
+        <v>5973000000</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -3547,13 +3483,13 @@
         <v>2017</v>
       </c>
       <c r="B128" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C128">
-        <v>740260</v>
+        <v>1060391</v>
       </c>
       <c r="D128">
-        <v>3574149000</v>
+        <v>10041500000</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -3561,13 +3497,13 @@
         <v>2017</v>
       </c>
       <c r="B129" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C129">
-        <v>1093557</v>
+        <v>900075</v>
       </c>
       <c r="D129">
-        <v>718500000</v>
+        <v>1447981000</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -3575,13 +3511,13 @@
         <v>2017</v>
       </c>
       <c r="B130" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C130">
-        <v>874766</v>
+        <v>920522</v>
       </c>
       <c r="D130">
-        <v>16974000000</v>
+        <v>1363899000</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -3589,13 +3525,13 @@
         <v>2017</v>
       </c>
       <c r="B131" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C131">
-        <v>1097149</v>
+        <v>45012</v>
       </c>
       <c r="D131">
-        <v>1473413000</v>
+        <v>20620000000</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -3603,13 +3539,13 @@
         <v>2017</v>
       </c>
       <c r="B132" t="s">
-        <v>386</v>
+        <v>118</v>
       </c>
       <c r="C132">
-        <v>21076</v>
+        <v>1402057</v>
       </c>
       <c r="D132">
-        <v>5973000000</v>
+        <v>3838600000</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -3620,10 +3556,10 @@
         <v>119</v>
       </c>
       <c r="C133">
-        <v>1060391</v>
+        <v>354190</v>
       </c>
       <c r="D133">
-        <v>10041500000</v>
+        <v>6159600000</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -3634,10 +3570,10 @@
         <v>120</v>
       </c>
       <c r="C134">
-        <v>900075</v>
+        <v>811156</v>
       </c>
       <c r="D134">
-        <v>1447981000</v>
+        <v>6583000000</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -3648,10 +3584,10 @@
         <v>121</v>
       </c>
       <c r="C135">
-        <v>920522</v>
+        <v>1037646</v>
       </c>
       <c r="D135">
-        <v>1363899000</v>
+        <v>2725053000</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -3662,10 +3598,10 @@
         <v>122</v>
       </c>
       <c r="C136">
-        <v>45012</v>
+        <v>920148</v>
       </c>
       <c r="D136">
-        <v>20620000000</v>
+        <v>10441400000</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -3673,13 +3609,13 @@
         <v>2017</v>
       </c>
       <c r="B137" t="s">
-        <v>123</v>
+        <v>407</v>
       </c>
       <c r="C137">
-        <v>1402057</v>
+        <v>96943</v>
       </c>
       <c r="D137">
-        <v>3838600000</v>
+        <v>2146303000</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -3687,13 +3623,13 @@
         <v>2017</v>
       </c>
       <c r="B138" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C138">
-        <v>354190</v>
+        <v>947484</v>
       </c>
       <c r="D138">
-        <v>6159600000</v>
+        <v>5627375000</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -3701,13 +3637,13 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C139">
-        <v>811156</v>
+        <v>711404</v>
       </c>
       <c r="D139">
-        <v>6583000000</v>
+        <v>2139000000</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -3715,13 +3651,13 @@
         <v>2017</v>
       </c>
       <c r="B140" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C140">
-        <v>1037646</v>
+        <v>1262039</v>
       </c>
       <c r="D140">
-        <v>2725053000</v>
+        <v>1494930000</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -3729,13 +3665,13 @@
         <v>2017</v>
       </c>
       <c r="B141" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C141">
-        <v>920148</v>
+        <v>1058057</v>
       </c>
       <c r="D141">
-        <v>10441400000</v>
+        <v>2409170000</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -3743,13 +3679,13 @@
         <v>2017</v>
       </c>
       <c r="B142" t="s">
-        <v>429</v>
+        <v>127</v>
       </c>
       <c r="C142">
-        <v>96943</v>
+        <v>54480</v>
       </c>
       <c r="D142">
-        <v>2146303000</v>
+        <v>2582900000</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -3760,10 +3696,10 @@
         <v>128</v>
       </c>
       <c r="C143">
-        <v>947484</v>
+        <v>29989</v>
       </c>
       <c r="D143">
-        <v>5627375000</v>
+        <v>15273600000</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -3771,13 +3707,13 @@
         <v>2017</v>
       </c>
       <c r="B144" t="s">
-        <v>129</v>
+        <v>368</v>
       </c>
       <c r="C144">
-        <v>711404</v>
+        <v>20286</v>
       </c>
       <c r="D144">
-        <v>2139000000</v>
+        <v>5732000000</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -3785,13 +3721,13 @@
         <v>2017</v>
       </c>
       <c r="B145" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C145">
-        <v>1262039</v>
+        <v>789570</v>
       </c>
       <c r="D145">
-        <v>1494930000</v>
+        <v>10773904000</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -3799,13 +3735,13 @@
         <v>2017</v>
       </c>
       <c r="B146" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C146">
-        <v>1058057</v>
+        <v>1048477</v>
       </c>
       <c r="D146">
-        <v>2409170000</v>
+        <v>1313646000</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -3813,13 +3749,13 @@
         <v>2017</v>
       </c>
       <c r="B147" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C147">
-        <v>54480</v>
+        <v>1590955</v>
       </c>
       <c r="D147">
-        <v>2582900000</v>
+        <v>433047000</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -3827,13 +3763,13 @@
         <v>2017</v>
       </c>
       <c r="B148" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C148">
-        <v>29989</v>
+        <v>18926</v>
       </c>
       <c r="D148">
-        <v>15273600000</v>
+        <v>5323000000</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -3841,13 +3777,13 @@
         <v>2017</v>
       </c>
       <c r="B149" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="C149">
-        <v>20286</v>
+        <v>1447669</v>
       </c>
       <c r="D149">
-        <v>5732000000</v>
+        <v>399020000</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -3855,13 +3791,13 @@
         <v>2017</v>
       </c>
       <c r="B150" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C150">
-        <v>789570</v>
+        <v>1126328</v>
       </c>
       <c r="D150">
-        <v>10773904000</v>
+        <v>14093200000</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -3869,13 +3805,13 @@
         <v>2017</v>
       </c>
       <c r="B151" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C151">
-        <v>1048477</v>
+        <v>1324424</v>
       </c>
       <c r="D151">
-        <v>1313646000</v>
+        <v>10059844000</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -3883,13 +3819,13 @@
         <v>2017</v>
       </c>
       <c r="B152" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C152">
-        <v>1590955</v>
+        <v>1384905</v>
       </c>
       <c r="D152">
-        <v>433047000</v>
+        <v>501526000</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -3897,13 +3833,13 @@
         <v>2017</v>
       </c>
       <c r="B153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C153">
-        <v>912595</v>
+        <v>877890</v>
       </c>
       <c r="D153">
-        <v>433047000</v>
+        <v>2824686000</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -3911,13 +3847,13 @@
         <v>2017</v>
       </c>
       <c r="B154" t="s">
-        <v>388</v>
+        <v>137</v>
       </c>
       <c r="C154">
-        <v>23217</v>
+        <v>1086222</v>
       </c>
       <c r="D154">
-        <v>433047000</v>
+        <v>2502996000</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -3928,10 +3864,10 @@
         <v>138</v>
       </c>
       <c r="C155">
-        <v>18926</v>
+        <v>1579298</v>
       </c>
       <c r="D155">
-        <v>5323000000</v>
+        <v>6110043000</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -3939,13 +3875,13 @@
         <v>2017</v>
       </c>
       <c r="B156" t="s">
-        <v>389</v>
+        <v>139</v>
       </c>
       <c r="C156">
-        <v>1403568</v>
+        <v>1022079</v>
       </c>
       <c r="D156">
-        <v>5323000000</v>
+        <v>7709000000</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -3953,13 +3889,13 @@
         <v>2017</v>
       </c>
       <c r="B157" t="s">
-        <v>430</v>
+        <v>140</v>
       </c>
       <c r="C157">
-        <v>1447669</v>
+        <v>943452</v>
       </c>
       <c r="D157">
-        <v>399020000</v>
+        <v>3881756000</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -3967,13 +3903,13 @@
         <v>2017</v>
       </c>
       <c r="B158" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C158">
-        <v>1126328</v>
+        <v>859737</v>
       </c>
       <c r="D158">
-        <v>14093200000</v>
+        <v>3058800000</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -3981,13 +3917,13 @@
         <v>2017</v>
       </c>
       <c r="B159" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C159">
-        <v>1324424</v>
+        <v>912593</v>
       </c>
       <c r="D159">
-        <v>10059844000</v>
+        <v>982570000</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -3995,13 +3931,13 @@
         <v>2017</v>
       </c>
       <c r="B160" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C160">
-        <v>1384905</v>
+        <v>1025378</v>
       </c>
       <c r="D160">
-        <v>501526000</v>
+        <v>848302000</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -4009,13 +3945,13 @@
         <v>2017</v>
       </c>
       <c r="B161" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C161">
-        <v>877890</v>
+        <v>1336920</v>
       </c>
       <c r="D161">
-        <v>2824686000</v>
+        <v>4712000000</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -4023,13 +3959,13 @@
         <v>2017</v>
       </c>
       <c r="B162" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C162">
-        <v>1086222</v>
+        <v>1121788</v>
       </c>
       <c r="D162">
-        <v>2502996000</v>
+        <v>3087004000</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -4037,13 +3973,13 @@
         <v>2017</v>
       </c>
       <c r="B163" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C163">
-        <v>1579298</v>
+        <v>62996</v>
       </c>
       <c r="D163">
-        <v>6110043000</v>
+        <v>7644000000</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -4051,13 +3987,13 @@
         <v>2017</v>
       </c>
       <c r="B164" t="s">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="C164">
-        <v>73309</v>
+        <v>1611983</v>
       </c>
       <c r="D164">
-        <v>6110043000</v>
+        <v>13092000</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -4065,13 +4001,13 @@
         <v>2017</v>
       </c>
       <c r="B165" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C165">
-        <v>1022079</v>
+        <v>1000697</v>
       </c>
       <c r="D165">
-        <v>7709000000</v>
+        <v>2309078000</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -4079,13 +4015,13 @@
         <v>2017</v>
       </c>
       <c r="B166" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C166">
-        <v>943452</v>
+        <v>352541</v>
       </c>
       <c r="D166">
-        <v>3881756000</v>
+        <v>3382200000</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -4093,13 +4029,13 @@
         <v>2017</v>
       </c>
       <c r="B167" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C167">
-        <v>859737</v>
-      </c>
-      <c r="D167">
-        <v>3058800000</v>
+        <v>1140859</v>
+      </c>
+      <c r="D167" s="1">
+        <v>153144000000</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -4107,13 +4043,13 @@
         <v>2017</v>
       </c>
       <c r="B168" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C168">
-        <v>912593</v>
+        <v>1002047</v>
       </c>
       <c r="D168">
-        <v>982570000</v>
+        <v>5519000000</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -4121,13 +4057,13 @@
         <v>2017</v>
       </c>
       <c r="B169" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C169">
-        <v>1025378</v>
+        <v>3570</v>
       </c>
       <c r="D169">
-        <v>848302000</v>
+        <v>5601000000</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -4135,13 +4071,13 @@
         <v>2017</v>
       </c>
       <c r="B170" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C170">
-        <v>1336920</v>
+        <v>60086</v>
       </c>
       <c r="D170">
-        <v>4712000000</v>
+        <v>13735000000</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -4149,13 +4085,13 @@
         <v>2017</v>
       </c>
       <c r="B171" t="s">
-        <v>151</v>
+        <v>409</v>
       </c>
       <c r="C171">
-        <v>1121788</v>
+        <v>1374310</v>
       </c>
       <c r="D171">
-        <v>3087004000</v>
+        <v>2229100000</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -4163,13 +4099,13 @@
         <v>2017</v>
       </c>
       <c r="B172" t="s">
-        <v>152</v>
+        <v>410</v>
       </c>
       <c r="C172">
-        <v>62996</v>
+        <v>1596532</v>
       </c>
       <c r="D172">
-        <v>7644000000</v>
+        <v>1646186000</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -4177,13 +4113,13 @@
         <v>2017</v>
       </c>
       <c r="B173" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C173">
-        <v>1611983</v>
+        <v>1308161</v>
       </c>
       <c r="D173">
-        <v>13092000</v>
+        <v>28500000000</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -4194,10 +4130,10 @@
         <v>153</v>
       </c>
       <c r="C174">
-        <v>1000697</v>
+        <v>1094285</v>
       </c>
       <c r="D174">
-        <v>2309078000</v>
+        <v>704400000</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -4208,10 +4144,10 @@
         <v>154</v>
       </c>
       <c r="C175">
-        <v>352541</v>
+        <v>946581</v>
       </c>
       <c r="D175">
-        <v>3382200000</v>
+        <v>1779748000</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -4222,10 +4158,10 @@
         <v>155</v>
       </c>
       <c r="C176">
-        <v>1140859</v>
-      </c>
-      <c r="D176" s="1">
-        <v>153144000000</v>
+        <v>879169</v>
+      </c>
+      <c r="D176">
+        <v>1536216000</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -4236,10 +4172,10 @@
         <v>156</v>
       </c>
       <c r="C177">
-        <v>1002047</v>
+        <v>783280</v>
       </c>
       <c r="D177">
-        <v>5519000000</v>
+        <v>780934000</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -4250,10 +4186,10 @@
         <v>157</v>
       </c>
       <c r="C178">
-        <v>3570</v>
+        <v>749251</v>
       </c>
       <c r="D178">
-        <v>5601000000</v>
+        <v>3311494000</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -4264,10 +4200,10 @@
         <v>158</v>
       </c>
       <c r="C179">
-        <v>60086</v>
+        <v>1120193</v>
       </c>
       <c r="D179">
-        <v>13735000000</v>
+        <v>3965000000</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
@@ -4275,13 +4211,13 @@
         <v>2017</v>
       </c>
       <c r="B180" t="s">
-        <v>432</v>
+        <v>159</v>
       </c>
       <c r="C180">
-        <v>1374310</v>
+        <v>1306830</v>
       </c>
       <c r="D180">
-        <v>2229100000</v>
+        <v>6140000000</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -4289,13 +4225,13 @@
         <v>2017</v>
       </c>
       <c r="B181" t="s">
-        <v>433</v>
+        <v>371</v>
       </c>
       <c r="C181">
-        <v>1596532</v>
+        <v>46080</v>
       </c>
       <c r="D181">
-        <v>1646186000</v>
+        <v>5209782000</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -4303,13 +4239,13 @@
         <v>2017</v>
       </c>
       <c r="B182" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="C182">
-        <v>1308161</v>
+        <v>877212</v>
       </c>
       <c r="D182">
-        <v>28500000000</v>
+        <v>3722000000</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
@@ -4317,13 +4253,13 @@
         <v>2017</v>
       </c>
       <c r="B183" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C183">
-        <v>1094285</v>
+        <v>1174922</v>
       </c>
       <c r="D183">
-        <v>704400000</v>
+        <v>6306368000</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
@@ -4331,13 +4267,13 @@
         <v>2017</v>
       </c>
       <c r="B184" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C184">
-        <v>946581</v>
+        <v>1604778</v>
       </c>
       <c r="D184">
-        <v>1779748000</v>
+        <v>642992000</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -4345,13 +4281,13 @@
         <v>2017</v>
       </c>
       <c r="B185" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C185">
-        <v>879169</v>
+        <v>832101</v>
       </c>
       <c r="D185">
-        <v>1536216000</v>
+        <v>2287312000</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
@@ -4359,13 +4295,13 @@
         <v>2017</v>
       </c>
       <c r="B186" t="s">
-        <v>162</v>
+        <v>372</v>
       </c>
       <c r="C186">
-        <v>783280</v>
+        <v>1624899</v>
       </c>
       <c r="D186">
-        <v>780934000</v>
+        <v>2612756000</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
@@ -4376,10 +4312,10 @@
         <v>163</v>
       </c>
       <c r="C187">
-        <v>749251</v>
+        <v>818479</v>
       </c>
       <c r="D187">
-        <v>3311494000</v>
+        <v>3993400000</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -4390,10 +4326,10 @@
         <v>164</v>
       </c>
       <c r="C188">
-        <v>1120193</v>
+        <v>779152</v>
       </c>
       <c r="D188">
-        <v>3965000000</v>
+        <v>383769000</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -4404,10 +4340,10 @@
         <v>165</v>
       </c>
       <c r="C189">
-        <v>1306830</v>
+        <v>1278021</v>
       </c>
       <c r="D189">
-        <v>6140000000</v>
+        <v>397471000</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -4415,13 +4351,13 @@
         <v>2017</v>
       </c>
       <c r="B190" t="s">
-        <v>392</v>
+        <v>166</v>
       </c>
       <c r="C190">
-        <v>46080</v>
+        <v>1070750</v>
       </c>
       <c r="D190">
-        <v>5209782000</v>
+        <v>5387000000</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -4429,13 +4365,13 @@
         <v>2017</v>
       </c>
       <c r="B191" t="s">
-        <v>434</v>
+        <v>373</v>
       </c>
       <c r="C191">
-        <v>877212</v>
+        <v>1623613</v>
       </c>
       <c r="D191">
-        <v>3722000000</v>
+        <v>11907700000</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -4443,13 +4379,13 @@
         <v>2017</v>
       </c>
       <c r="B192" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C192">
-        <v>1174922</v>
+        <v>217346</v>
       </c>
       <c r="D192">
-        <v>6306368000</v>
+        <v>14198000000</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -4457,13 +4393,13 @@
         <v>2017</v>
       </c>
       <c r="B193" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C193">
-        <v>1604778</v>
+        <v>8818</v>
       </c>
       <c r="D193">
-        <v>642992000</v>
+        <v>6086500000</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
@@ -4471,13 +4407,13 @@
         <v>2017</v>
       </c>
       <c r="B194" t="s">
-        <v>168</v>
+        <v>412</v>
       </c>
       <c r="C194">
-        <v>832101</v>
+        <v>1513761</v>
       </c>
       <c r="D194">
-        <v>2287312000</v>
+        <v>5396175000</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -4485,13 +4421,13 @@
         <v>2017</v>
       </c>
       <c r="B195" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C195">
-        <v>1624899</v>
+        <v>105770</v>
       </c>
       <c r="D195">
-        <v>2612756000</v>
+        <v>1509100000</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -4502,10 +4438,10 @@
         <v>169</v>
       </c>
       <c r="C196">
-        <v>818479</v>
+        <v>1067701</v>
       </c>
       <c r="D196">
-        <v>3993400000</v>
+        <v>1922000000</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -4516,10 +4452,10 @@
         <v>170</v>
       </c>
       <c r="C197">
-        <v>779152</v>
+        <v>1145197</v>
       </c>
       <c r="D197">
-        <v>383769000</v>
+        <v>463768000</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -4527,13 +4463,13 @@
         <v>2017</v>
       </c>
       <c r="B198" t="s">
-        <v>171</v>
+        <v>414</v>
       </c>
       <c r="C198">
-        <v>1278021</v>
+        <v>6201</v>
       </c>
       <c r="D198">
-        <v>397471000</v>
+        <v>42207000000</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -4541,13 +4477,13 @@
         <v>2017</v>
       </c>
       <c r="B199" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C199">
-        <v>1070750</v>
+        <v>1286681</v>
       </c>
       <c r="D199">
-        <v>5387000000</v>
+        <v>2787979000</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -4555,13 +4491,13 @@
         <v>2017</v>
       </c>
       <c r="B200" t="s">
-        <v>394</v>
+        <v>172</v>
       </c>
       <c r="C200">
-        <v>1623613</v>
+        <v>822416</v>
       </c>
       <c r="D200">
-        <v>11907700000</v>
+        <v>8573250000</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -4572,10 +4508,10 @@
         <v>173</v>
       </c>
       <c r="C201">
-        <v>217346</v>
+        <v>864749</v>
       </c>
       <c r="D201">
-        <v>14198000000</v>
+        <v>2654200000</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -4586,10 +4522,10 @@
         <v>174</v>
       </c>
       <c r="C202">
-        <v>8818</v>
+        <v>352915</v>
       </c>
       <c r="D202">
-        <v>6086500000</v>
+        <v>10409865000</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -4597,13 +4533,13 @@
         <v>2017</v>
       </c>
       <c r="B203" t="s">
-        <v>435</v>
+        <v>175</v>
       </c>
       <c r="C203">
-        <v>1513761</v>
+        <v>764622</v>
       </c>
       <c r="D203">
-        <v>5396175000</v>
+        <v>3565296000</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -4611,13 +4547,13 @@
         <v>2017</v>
       </c>
       <c r="B204" t="s">
-        <v>436</v>
+        <v>176</v>
       </c>
       <c r="C204">
-        <v>105770</v>
+        <v>11544</v>
       </c>
       <c r="D204">
-        <v>1509100000</v>
+        <v>7684764000</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -4625,13 +4561,13 @@
         <v>2017</v>
       </c>
       <c r="B205" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C205">
-        <v>1067701</v>
+        <v>79282</v>
       </c>
       <c r="D205">
-        <v>1922000000</v>
+        <v>1881347000</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -4639,13 +4575,13 @@
         <v>2017</v>
       </c>
       <c r="B206" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C206">
-        <v>1145197</v>
+        <v>1013237</v>
       </c>
       <c r="D206">
-        <v>463768000</v>
+        <v>1221179000</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -4653,13 +4589,13 @@
         <v>2017</v>
       </c>
       <c r="B207" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="C207">
-        <v>6201</v>
+        <v>1428439</v>
       </c>
       <c r="D207">
-        <v>42207000000</v>
+        <v>512763000</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -4667,13 +4603,13 @@
         <v>2017</v>
       </c>
       <c r="B208" t="s">
-        <v>177</v>
+        <v>416</v>
       </c>
       <c r="C208">
-        <v>1286681</v>
+        <v>1636023</v>
       </c>
       <c r="D208">
-        <v>2787979000</v>
+        <v>14859700000</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -4681,13 +4617,13 @@
         <v>2017</v>
       </c>
       <c r="B209" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C209">
-        <v>822416</v>
+        <v>31791</v>
       </c>
       <c r="D209">
-        <v>8573250000</v>
+        <v>2256982000</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -4695,13 +4631,13 @@
         <v>2017</v>
       </c>
       <c r="B210" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C210">
-        <v>864749</v>
+        <v>1584509</v>
       </c>
       <c r="D210">
-        <v>2654200000</v>
+        <v>14604412000</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -4709,13 +4645,13 @@
         <v>2017</v>
       </c>
       <c r="B211" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C211">
-        <v>352915</v>
+        <v>910606</v>
       </c>
       <c r="D211">
-        <v>10409865000</v>
+        <v>984326000</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -4723,13 +4659,13 @@
         <v>2017</v>
       </c>
       <c r="B212" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C212">
-        <v>764622</v>
+        <v>1065696</v>
       </c>
       <c r="D212">
-        <v>3565296000</v>
+        <v>9736909000</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -4737,13 +4673,13 @@
         <v>2017</v>
       </c>
       <c r="B213" t="s">
-        <v>182</v>
+        <v>374</v>
       </c>
       <c r="C213">
-        <v>11544</v>
+        <v>1000228</v>
       </c>
       <c r="D213">
-        <v>7684764000</v>
+        <v>12461543000</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -4751,13 +4687,13 @@
         <v>2017</v>
       </c>
       <c r="B214" t="s">
-        <v>183</v>
+        <v>417</v>
       </c>
       <c r="C214">
-        <v>79282</v>
+        <v>1507385</v>
       </c>
       <c r="D214">
-        <v>1881347000</v>
+        <v>1252285000</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -4765,13 +4701,13 @@
         <v>2017</v>
       </c>
       <c r="B215" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C215">
-        <v>1013237</v>
+        <v>1219601</v>
       </c>
       <c r="D215">
-        <v>1221179000</v>
+        <v>8698000000</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
@@ -4779,13 +4715,13 @@
         <v>2017</v>
       </c>
       <c r="B216" t="s">
-        <v>438</v>
+        <v>184</v>
       </c>
       <c r="C216">
-        <v>1428439</v>
+        <v>72331</v>
       </c>
       <c r="D216">
-        <v>512763000</v>
+        <v>2066982000</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
@@ -4793,13 +4729,13 @@
         <v>2017</v>
       </c>
       <c r="B217" t="s">
-        <v>439</v>
+        <v>185</v>
       </c>
       <c r="C217">
-        <v>1636023</v>
+        <v>72207</v>
       </c>
       <c r="D217">
-        <v>14859700000</v>
+        <v>4256000000</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -4807,13 +4743,13 @@
         <v>2017</v>
       </c>
       <c r="B218" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C218">
-        <v>31791</v>
+        <v>1519751</v>
       </c>
       <c r="D218">
-        <v>2256982000</v>
+        <v>5283300000</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -4821,13 +4757,13 @@
         <v>2017</v>
       </c>
       <c r="B219" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C219">
-        <v>1584509</v>
+        <v>1385867</v>
       </c>
       <c r="D219">
-        <v>14604412000</v>
+        <v>186780000</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -4835,13 +4771,13 @@
         <v>2017</v>
       </c>
       <c r="B220" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C220">
-        <v>910606</v>
+        <v>101778</v>
       </c>
       <c r="D220">
-        <v>984326000</v>
+        <v>4765000000</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -4849,13 +4785,13 @@
         <v>2017</v>
       </c>
       <c r="B221" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C221">
-        <v>1065696</v>
+        <v>1528396</v>
       </c>
       <c r="D221">
-        <v>9736909000</v>
+        <v>514284000</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -4863,13 +4799,13 @@
         <v>2017</v>
       </c>
       <c r="B222" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="C222">
-        <v>1000228</v>
+        <v>1437578</v>
       </c>
       <c r="D222">
-        <v>12461543000</v>
+        <v>1740905000</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -4877,13 +4813,13 @@
         <v>2017</v>
       </c>
       <c r="B223" t="s">
-        <v>440</v>
+        <v>376</v>
       </c>
       <c r="C223">
-        <v>1507385</v>
+        <v>1463172</v>
       </c>
       <c r="D223">
-        <v>1252285000</v>
+        <v>430492000</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -4891,13 +4827,13 @@
         <v>2017</v>
       </c>
       <c r="B224" t="s">
-        <v>441</v>
+        <v>377</v>
       </c>
       <c r="C224">
-        <v>1062579</v>
+        <v>1575965</v>
       </c>
       <c r="D224">
-        <v>1252285000</v>
+        <v>240697000</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -4905,13 +4841,13 @@
         <v>2017</v>
       </c>
       <c r="B225" t="s">
-        <v>189</v>
+        <v>378</v>
       </c>
       <c r="C225">
-        <v>1219601</v>
+        <v>812011</v>
       </c>
       <c r="D225">
-        <v>8698000000</v>
+        <v>1907218000</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -4922,10 +4858,10 @@
         <v>190</v>
       </c>
       <c r="C226">
-        <v>72331</v>
+        <v>1013871</v>
       </c>
       <c r="D226">
-        <v>2066982000</v>
+        <v>10629000000</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -4936,10 +4872,10 @@
         <v>191</v>
       </c>
       <c r="C227">
-        <v>72207</v>
+        <v>1309108</v>
       </c>
       <c r="D227">
-        <v>4256000000</v>
+        <v>1250548000</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -4947,13 +4883,13 @@
         <v>2017</v>
       </c>
       <c r="B228" t="s">
-        <v>192</v>
+        <v>379</v>
       </c>
       <c r="C228">
-        <v>1519751</v>
+        <v>898174</v>
       </c>
       <c r="D228">
-        <v>5283300000</v>
+        <v>12515769000</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -4961,13 +4897,13 @@
         <v>2017</v>
       </c>
       <c r="B229" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C229">
-        <v>1385867</v>
+        <v>106640</v>
       </c>
       <c r="D229">
-        <v>186780000</v>
+        <v>21253000000</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -4975,13 +4911,13 @@
         <v>2017</v>
       </c>
       <c r="B230" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C230">
-        <v>101778</v>
+        <v>915913</v>
       </c>
       <c r="D230">
-        <v>4765000000</v>
+        <v>3071976000</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -4989,13 +4925,13 @@
         <v>2017</v>
       </c>
       <c r="B231" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C231">
-        <v>110621</v>
+        <v>1021635</v>
       </c>
       <c r="D231">
-        <v>4765000000</v>
+        <v>2261100000</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -5003,13 +4939,13 @@
         <v>2017</v>
       </c>
       <c r="B232" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C232">
-        <v>1528396</v>
+        <v>1335258</v>
       </c>
       <c r="D232">
-        <v>514284000</v>
+        <v>10337448000</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -5017,13 +4953,13 @@
         <v>2017</v>
       </c>
       <c r="B233" t="s">
-        <v>396</v>
+        <v>196</v>
       </c>
       <c r="C233">
-        <v>1437578</v>
+        <v>1158449</v>
       </c>
       <c r="D233">
-        <v>1740905000</v>
+        <v>2036986000</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -5031,13 +4967,13 @@
         <v>2017</v>
       </c>
       <c r="B234" t="s">
-        <v>397</v>
+        <v>197</v>
       </c>
       <c r="C234">
-        <v>1463172</v>
+        <v>51644</v>
       </c>
       <c r="D234">
-        <v>430492000</v>
+        <v>7882400000</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -5045,13 +4981,13 @@
         <v>2017</v>
       </c>
       <c r="B235" t="s">
-        <v>398</v>
+        <v>198</v>
       </c>
       <c r="C235">
-        <v>1575965</v>
+        <v>851205</v>
       </c>
       <c r="D235">
-        <v>240697000</v>
+        <v>747950000</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -5059,13 +4995,13 @@
         <v>2017</v>
       </c>
       <c r="B236" t="s">
-        <v>399</v>
+        <v>199</v>
       </c>
       <c r="C236">
-        <v>812011</v>
+        <v>857005</v>
       </c>
       <c r="D236">
-        <v>1907218000</v>
+        <v>1164039000</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -5073,13 +5009,13 @@
         <v>2017</v>
       </c>
       <c r="B237" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C237">
-        <v>1013871</v>
+        <v>1004980</v>
       </c>
       <c r="D237">
-        <v>10629000000</v>
+        <v>17135000000</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -5087,13 +5023,13 @@
         <v>2017</v>
       </c>
       <c r="B238" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C238">
-        <v>1309108</v>
+        <v>350894</v>
       </c>
       <c r="D238">
-        <v>1250548000</v>
+        <v>1526552000</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
@@ -5101,13 +5037,13 @@
         <v>2017</v>
       </c>
       <c r="B239" t="s">
-        <v>400</v>
+        <v>202</v>
       </c>
       <c r="C239">
-        <v>898174</v>
+        <v>884614</v>
       </c>
       <c r="D239">
-        <v>12515769000</v>
+        <v>6120700000</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
@@ -5115,13 +5051,13 @@
         <v>2017</v>
       </c>
       <c r="B240" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C240">
-        <v>106640</v>
+        <v>791915</v>
       </c>
       <c r="D240">
-        <v>21253000000</v>
+        <v>2327771000</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -5129,13 +5065,13 @@
         <v>2017</v>
       </c>
       <c r="B241" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C241">
-        <v>1324404</v>
+        <v>929940</v>
       </c>
       <c r="D241">
-        <v>21253000000</v>
+        <v>482942000</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -5143,13 +5079,13 @@
         <v>2017</v>
       </c>
       <c r="B242" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C242">
-        <v>915913</v>
+        <v>1596783</v>
       </c>
       <c r="D242">
-        <v>3071976000</v>
+        <v>2075400000</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -5157,13 +5093,13 @@
         <v>2017</v>
       </c>
       <c r="B243" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C243">
-        <v>1021635</v>
+        <v>945841</v>
       </c>
       <c r="D243">
-        <v>2261100000</v>
+        <v>2788188000</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -5171,13 +5107,13 @@
         <v>2017</v>
       </c>
       <c r="B244" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C244">
-        <v>1335258</v>
+        <v>1069202</v>
       </c>
       <c r="D244">
-        <v>10337448000</v>
+        <v>3839600000</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -5185,13 +5121,13 @@
         <v>2017</v>
       </c>
       <c r="B245" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C245">
-        <v>1158449</v>
+        <v>815094</v>
       </c>
       <c r="D245">
-        <v>2036986000</v>
+        <v>445304000</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -5199,13 +5135,13 @@
         <v>2017</v>
       </c>
       <c r="B246" t="s">
-        <v>442</v>
+        <v>209</v>
       </c>
       <c r="C246">
-        <v>1020569</v>
+        <v>913144</v>
       </c>
       <c r="D246">
-        <v>2036986000</v>
+        <v>491293000</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -5213,13 +5149,13 @@
         <v>2017</v>
       </c>
       <c r="B247" t="s">
-        <v>205</v>
+        <v>380</v>
       </c>
       <c r="C247">
-        <v>51644</v>
+        <v>1166003</v>
       </c>
       <c r="D247">
-        <v>7882400000</v>
+        <v>15380800000</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -5227,13 +5163,13 @@
         <v>2017</v>
       </c>
       <c r="B248" t="s">
-        <v>206</v>
+        <v>381</v>
       </c>
       <c r="C248">
-        <v>851205</v>
+        <v>1538990</v>
       </c>
       <c r="D248">
-        <v>747950000</v>
+        <v>452847000</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -5241,13 +5177,13 @@
         <v>2017</v>
       </c>
       <c r="B249" t="s">
-        <v>207</v>
+        <v>382</v>
       </c>
       <c r="C249">
-        <v>857005</v>
+        <v>1535929</v>
       </c>
       <c r="D249">
-        <v>1164039000</v>
+        <v>8618000000</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -5255,13 +5191,13 @@
         <v>2017</v>
       </c>
       <c r="B250" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C250">
-        <v>1004980</v>
+        <v>1267238</v>
       </c>
       <c r="D250">
-        <v>17135000000</v>
+        <v>6415000000</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -5269,13 +5205,13 @@
         <v>2017</v>
       </c>
       <c r="B251" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C251">
-        <v>350894</v>
+        <v>1042046</v>
       </c>
       <c r="D251">
-        <v>1526552000</v>
+        <v>6865000000</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -5283,13 +5219,13 @@
         <v>2017</v>
       </c>
       <c r="B252" t="s">
-        <v>210</v>
+        <v>418</v>
       </c>
       <c r="C252">
-        <v>884614</v>
+        <v>858339</v>
       </c>
       <c r="D252">
-        <v>6120700000</v>
+        <v>4852000000</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -5297,13 +5233,13 @@
         <v>2017</v>
       </c>
       <c r="B253" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C253">
-        <v>791915</v>
+        <v>1179929</v>
       </c>
       <c r="D253">
-        <v>2327771000</v>
+        <v>19883000000</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -5311,13 +5247,13 @@
         <v>2017</v>
       </c>
       <c r="B254" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C254">
-        <v>929940</v>
+        <v>766421</v>
       </c>
       <c r="D254">
-        <v>482942000</v>
+        <v>7933000000</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -5325,13 +5261,13 @@
         <v>2017</v>
       </c>
       <c r="B255" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C255">
-        <v>1596783</v>
+        <v>1232524</v>
       </c>
       <c r="D255">
-        <v>2075400000</v>
+        <v>1618693000</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -5339,13 +5275,13 @@
         <v>2017</v>
       </c>
       <c r="B256" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C256">
-        <v>945841</v>
+        <v>1029199</v>
       </c>
       <c r="D256">
-        <v>2788188000</v>
+        <v>604645000</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -5353,13 +5289,13 @@
         <v>2017</v>
       </c>
       <c r="B257" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C257">
-        <v>1069202</v>
+        <v>879101</v>
       </c>
       <c r="D257">
-        <v>3839600000</v>
+        <v>1200834000</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -5367,13 +5303,13 @@
         <v>2017</v>
       </c>
       <c r="B258" t="s">
-        <v>216</v>
+        <v>383</v>
       </c>
       <c r="C258">
-        <v>815094</v>
+        <v>1608249</v>
       </c>
       <c r="D258">
-        <v>445304000</v>
+        <v>2199800000</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
@@ -5384,10 +5320,10 @@
         <v>217</v>
       </c>
       <c r="C259">
-        <v>913144</v>
+        <v>922864</v>
       </c>
       <c r="D259">
-        <v>491293000</v>
+        <v>1005437000</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
@@ -5395,13 +5331,13 @@
         <v>2017</v>
       </c>
       <c r="B260" t="s">
-        <v>401</v>
+        <v>218</v>
       </c>
       <c r="C260">
-        <v>1166003</v>
+        <v>1116132</v>
       </c>
       <c r="D260">
-        <v>15380800000</v>
+        <v>4488300000</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
@@ -5409,13 +5345,13 @@
         <v>2017</v>
       </c>
       <c r="B261" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="C261">
-        <v>1538990</v>
+        <v>1280452</v>
       </c>
       <c r="D261">
-        <v>452847000</v>
+        <v>470929000</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -5423,13 +5359,13 @@
         <v>2017</v>
       </c>
       <c r="B262" t="s">
-        <v>403</v>
+        <v>219</v>
       </c>
       <c r="C262">
-        <v>1535929</v>
+        <v>814453</v>
       </c>
       <c r="D262">
-        <v>8618000000</v>
+        <v>14742200000</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -5437,13 +5373,13 @@
         <v>2017</v>
       </c>
       <c r="B263" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C263">
-        <v>1267238</v>
+        <v>1005284</v>
       </c>
       <c r="D263">
-        <v>6415000000</v>
+        <v>335629000</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -5451,13 +5387,13 @@
         <v>2017</v>
       </c>
       <c r="B264" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C264">
-        <v>1042046</v>
+        <v>1043604</v>
       </c>
       <c r="D264">
-        <v>6865000000</v>
+        <v>5027200000</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -5465,13 +5401,13 @@
         <v>2017</v>
       </c>
       <c r="B265" t="s">
-        <v>443</v>
+        <v>222</v>
       </c>
       <c r="C265">
-        <v>858339</v>
+        <v>861884</v>
       </c>
       <c r="D265">
-        <v>4852000000</v>
+        <v>9721000000</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -5479,13 +5415,13 @@
         <v>2017</v>
       </c>
       <c r="B266" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C266">
-        <v>1179929</v>
+        <v>1477294</v>
       </c>
       <c r="D266">
-        <v>19883000000</v>
+        <v>3306733000</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -5493,13 +5429,13 @@
         <v>2017</v>
       </c>
       <c r="B267" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C267">
-        <v>766421</v>
+        <v>1101302</v>
       </c>
       <c r="D267">
-        <v>7933000000</v>
+        <v>1342532000</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -5507,13 +5443,13 @@
         <v>2017</v>
       </c>
       <c r="B268" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C268">
-        <v>1232524</v>
+        <v>1397911</v>
       </c>
       <c r="D268">
-        <v>1618693000</v>
+        <v>4281481000</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -5521,13 +5457,13 @@
         <v>2017</v>
       </c>
       <c r="B269" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C269">
-        <v>1029199</v>
+        <v>1040971</v>
       </c>
       <c r="D269">
-        <v>604645000</v>
+        <v>1511473000</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -5535,13 +5471,13 @@
         <v>2017</v>
       </c>
       <c r="B270" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C270">
-        <v>879101</v>
+        <v>1100682</v>
       </c>
       <c r="D270">
-        <v>1200834000</v>
+        <v>1857601000</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
@@ -5549,13 +5485,13 @@
         <v>2017</v>
       </c>
       <c r="B271" t="s">
-        <v>225</v>
+        <v>384</v>
       </c>
       <c r="C271">
-        <v>12208</v>
+        <v>19584</v>
       </c>
       <c r="D271">
-        <v>1200834000</v>
+        <v>1666724000</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -5563,13 +5499,13 @@
         <v>2017</v>
       </c>
       <c r="B272" t="s">
-        <v>404</v>
+        <v>228</v>
       </c>
       <c r="C272">
-        <v>1608249</v>
+        <v>896622</v>
       </c>
       <c r="D272">
-        <v>2199800000</v>
+        <v>2469283000</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -5577,13 +5513,13 @@
         <v>2017</v>
       </c>
       <c r="B273" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C273">
-        <v>922864</v>
+        <v>874015</v>
       </c>
       <c r="D273">
-        <v>1005437000</v>
+        <v>507666000</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -5591,13 +5527,13 @@
         <v>2017</v>
       </c>
       <c r="B274" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C274">
-        <v>1116132</v>
+        <v>1492633</v>
       </c>
       <c r="D274">
-        <v>4488300000</v>
+        <v>6572000000</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
@@ -5605,13 +5541,13 @@
         <v>2017</v>
       </c>
       <c r="B275" t="s">
-        <v>444</v>
+        <v>231</v>
       </c>
       <c r="C275">
-        <v>1280452</v>
+        <v>1144519</v>
       </c>
       <c r="D275">
-        <v>470929000</v>
+        <v>45794000000</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -5619,13 +5555,13 @@
         <v>2017</v>
       </c>
       <c r="B276" t="s">
-        <v>228</v>
+        <v>420</v>
       </c>
       <c r="C276">
-        <v>814453</v>
+        <v>1585364</v>
       </c>
       <c r="D276">
-        <v>14742200000</v>
+        <v>2632200000</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -5633,13 +5569,13 @@
         <v>2017</v>
       </c>
       <c r="B277" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C277">
-        <v>1005284</v>
+        <v>354908</v>
       </c>
       <c r="D277">
-        <v>335629000</v>
+        <v>1800434000</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -5647,13 +5583,13 @@
         <v>2017</v>
       </c>
       <c r="B278" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C278">
-        <v>1043604</v>
+        <v>885639</v>
       </c>
       <c r="D278">
-        <v>5027200000</v>
+        <v>19095000000</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
@@ -5661,13 +5597,13 @@
         <v>2017</v>
       </c>
       <c r="B279" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C279">
-        <v>861884</v>
+        <v>38777</v>
       </c>
       <c r="D279">
-        <v>9721000000</v>
+        <v>6392200000</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
@@ -5675,13 +5611,13 @@
         <v>2017</v>
       </c>
       <c r="B280" t="s">
-        <v>232</v>
+        <v>421</v>
       </c>
       <c r="C280">
-        <v>1015820</v>
+        <v>1404655</v>
       </c>
       <c r="D280">
-        <v>9721000000</v>
+        <v>375612000</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -5689,13 +5625,13 @@
         <v>2017</v>
       </c>
       <c r="B281" t="s">
-        <v>233</v>
+        <v>385</v>
       </c>
       <c r="C281">
-        <v>355811</v>
+        <v>1465128</v>
       </c>
       <c r="D281">
-        <v>9721000000</v>
+        <v>879888000</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -5703,13 +5639,13 @@
         <v>2017</v>
       </c>
       <c r="B282" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C282">
-        <v>1477294</v>
+        <v>1212458</v>
       </c>
       <c r="D282">
-        <v>3306733000</v>
+        <v>515289000</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -5717,13 +5653,13 @@
         <v>2017</v>
       </c>
       <c r="B283" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C283">
-        <v>1101302</v>
+        <v>1364250</v>
       </c>
       <c r="D283">
-        <v>1342532000</v>
+        <v>812052000</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -5731,13 +5667,13 @@
         <v>2017</v>
       </c>
       <c r="B284" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C284">
-        <v>1397911</v>
+        <v>914208</v>
       </c>
       <c r="D284">
-        <v>4281481000</v>
+        <v>5160300000</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -5745,13 +5681,13 @@
         <v>2017</v>
       </c>
       <c r="B285" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C285">
-        <v>1040971</v>
+        <v>1390844</v>
       </c>
       <c r="D285">
-        <v>1511473000</v>
+        <v>3304200000</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -5759,13 +5695,13 @@
         <v>2017</v>
       </c>
       <c r="B286" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C286">
-        <v>1100682</v>
+        <v>1364885</v>
       </c>
       <c r="D286">
-        <v>1857601000</v>
+        <v>1714600000</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -5773,13 +5709,13 @@
         <v>2017</v>
       </c>
       <c r="B287" t="s">
-        <v>405</v>
+        <v>240</v>
       </c>
       <c r="C287">
-        <v>19584</v>
+        <v>1472787</v>
       </c>
       <c r="D287">
-        <v>1666724000</v>
+        <v>5772363000</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -5787,13 +5723,13 @@
         <v>2017</v>
       </c>
       <c r="B288" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C288">
-        <v>896622</v>
+        <v>1441816</v>
       </c>
       <c r="D288">
-        <v>2469283000</v>
+        <v>154519000</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -5801,13 +5737,13 @@
         <v>2017</v>
       </c>
       <c r="B289" t="s">
-        <v>240</v>
+        <v>422</v>
       </c>
       <c r="C289">
-        <v>874015</v>
+        <v>1613859</v>
       </c>
       <c r="D289">
-        <v>507666000</v>
+        <v>2259389000</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
@@ -5815,13 +5751,13 @@
         <v>2017</v>
       </c>
       <c r="B290" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C290">
-        <v>1492633</v>
+        <v>1637207</v>
       </c>
       <c r="D290">
-        <v>6572000000</v>
+        <v>429942000</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -5829,13 +5765,13 @@
         <v>2017</v>
       </c>
       <c r="B291" t="s">
-        <v>242</v>
+        <v>386</v>
       </c>
       <c r="C291">
-        <v>1144519</v>
+        <v>1527469</v>
       </c>
       <c r="D291">
-        <v>45794000000</v>
+        <v>8727000000</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -5843,13 +5779,13 @@
         <v>2017</v>
       </c>
       <c r="B292" t="s">
-        <v>445</v>
+        <v>243</v>
       </c>
       <c r="C292">
-        <v>1585364</v>
+        <v>936395</v>
       </c>
       <c r="D292">
-        <v>2632200000</v>
+        <v>2801687000</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -5857,13 +5793,13 @@
         <v>2017</v>
       </c>
       <c r="B293" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C293">
-        <v>354908</v>
+        <v>74260</v>
       </c>
       <c r="D293">
-        <v>1800434000</v>
+        <v>6263100000</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -5871,13 +5807,13 @@
         <v>2017</v>
       </c>
       <c r="B294" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C294">
-        <v>885639</v>
+        <v>1360604</v>
       </c>
       <c r="D294">
-        <v>19095000000</v>
+        <v>613990000</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -5885,13 +5821,13 @@
         <v>2017</v>
       </c>
       <c r="B295" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C295">
-        <v>38777</v>
+        <v>30625</v>
       </c>
       <c r="D295">
-        <v>6392200000</v>
+        <v>3660831000</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -5899,13 +5835,13 @@
         <v>2017</v>
       </c>
       <c r="B296" t="s">
-        <v>446</v>
+        <v>387</v>
       </c>
       <c r="C296">
-        <v>1404655</v>
+        <v>1177609</v>
       </c>
       <c r="D296">
-        <v>375612000</v>
+        <v>1278208000</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
@@ -5913,13 +5849,13 @@
         <v>2017</v>
       </c>
       <c r="B297" t="s">
-        <v>406</v>
+        <v>247</v>
       </c>
       <c r="C297">
-        <v>1465128</v>
+        <v>1357204</v>
       </c>
       <c r="D297">
-        <v>879888000</v>
+        <v>860501000</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -5927,13 +5863,13 @@
         <v>2017</v>
       </c>
       <c r="B298" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C298">
-        <v>1212458</v>
+        <v>775158</v>
       </c>
       <c r="D298">
-        <v>515289000</v>
+        <v>6829600000</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -5941,13 +5877,13 @@
         <v>2017</v>
       </c>
       <c r="B299" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C299">
-        <v>1364250</v>
+        <v>1486957</v>
       </c>
       <c r="D299">
-        <v>812052000</v>
+        <v>1687738000</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -5955,13 +5891,13 @@
         <v>2017</v>
       </c>
       <c r="B300" t="s">
-        <v>248</v>
+        <v>388</v>
       </c>
       <c r="C300">
-        <v>914208</v>
+        <v>216228</v>
       </c>
       <c r="D300">
-        <v>5160300000</v>
+        <v>2585300000</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -5969,13 +5905,13 @@
         <v>2017</v>
       </c>
       <c r="B301" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C301">
-        <v>1390844</v>
+        <v>5513</v>
       </c>
       <c r="D301">
-        <v>3304200000</v>
+        <v>11286800000</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -5983,13 +5919,13 @@
         <v>2017</v>
       </c>
       <c r="B302" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C302">
-        <v>1364885</v>
+        <v>67716</v>
       </c>
       <c r="D302">
-        <v>1714600000</v>
+        <v>4443351000</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
@@ -5997,13 +5933,13 @@
         <v>2017</v>
       </c>
       <c r="B303" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C303">
-        <v>1472787</v>
+        <v>1022671</v>
       </c>
       <c r="D303">
-        <v>5772363000</v>
+        <v>9538797000</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
@@ -6011,13 +5947,13 @@
         <v>2017</v>
       </c>
       <c r="B304" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C304">
-        <v>1441816</v>
+        <v>1616707</v>
       </c>
       <c r="D304">
-        <v>154519000</v>
+        <v>4720895000</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
@@ -6025,13 +5961,13 @@
         <v>2017</v>
       </c>
       <c r="B305" t="s">
-        <v>447</v>
+        <v>254</v>
       </c>
       <c r="C305">
-        <v>1613859</v>
+        <v>1616862</v>
       </c>
       <c r="D305">
-        <v>2259389000</v>
+        <v>4377000000</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
@@ -6039,13 +5975,13 @@
         <v>2017</v>
       </c>
       <c r="B306" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C306">
-        <v>16058</v>
+        <v>1597033</v>
       </c>
       <c r="D306">
-        <v>2259389000</v>
+        <v>881862000</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
@@ -6053,13 +5989,13 @@
         <v>2017</v>
       </c>
       <c r="B307" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C307">
-        <v>1637207</v>
+        <v>58492</v>
       </c>
       <c r="D307">
-        <v>429942000</v>
+        <v>3943800000</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
@@ -6067,13 +6003,13 @@
         <v>2017</v>
       </c>
       <c r="B308" t="s">
-        <v>407</v>
+        <v>257</v>
       </c>
       <c r="C308">
-        <v>1527469</v>
+        <v>1617640</v>
       </c>
       <c r="D308">
-        <v>8727000000</v>
+        <v>1076794000</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
@@ -6081,13 +6017,13 @@
         <v>2017</v>
       </c>
       <c r="B309" t="s">
-        <v>255</v>
+        <v>389</v>
       </c>
       <c r="C309">
-        <v>936395</v>
+        <v>25232</v>
       </c>
       <c r="D309">
-        <v>2801687000</v>
+        <v>466185000</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
@@ -6095,13 +6031,13 @@
         <v>2017</v>
       </c>
       <c r="B310" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C310">
-        <v>74260</v>
+        <v>898293</v>
       </c>
       <c r="D310">
-        <v>6263100000</v>
+        <v>19063121000</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -6109,13 +6045,13 @@
         <v>2017</v>
       </c>
       <c r="B311" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C311">
-        <v>1360604</v>
+        <v>1037038</v>
       </c>
       <c r="D311">
-        <v>613990000</v>
+        <v>6652800000</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
@@ -6123,13 +6059,13 @@
         <v>2017</v>
       </c>
       <c r="B312" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C312">
-        <v>30625</v>
+        <v>935494</v>
       </c>
       <c r="D312">
-        <v>3660831000</v>
+        <v>1289386000</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
@@ -6137,13 +6073,13 @@
         <v>2017</v>
       </c>
       <c r="B313" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C313">
-        <v>1177609</v>
+        <v>726958</v>
       </c>
       <c r="D313">
-        <v>1278208000</v>
+        <v>7506587000</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
@@ -6151,13 +6087,13 @@
         <v>2017</v>
       </c>
       <c r="B314" t="s">
-        <v>259</v>
+        <v>423</v>
       </c>
       <c r="C314">
-        <v>1357204</v>
+        <v>1618732</v>
       </c>
       <c r="D314">
-        <v>860501000</v>
+        <v>226102000</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
@@ -6165,13 +6101,13 @@
         <v>2017</v>
       </c>
       <c r="B315" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C315">
-        <v>7536</v>
+        <v>91767</v>
       </c>
       <c r="D315">
-        <v>860501000</v>
+        <v>5036650000</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
@@ -6179,13 +6115,13 @@
         <v>2017</v>
       </c>
       <c r="B316" t="s">
-        <v>261</v>
+        <v>391</v>
       </c>
       <c r="C316">
-        <v>775158</v>
+        <v>1378992</v>
       </c>
       <c r="D316">
-        <v>6829600000</v>
+        <v>1881000000</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -6193,13 +6129,13 @@
         <v>2017</v>
       </c>
       <c r="B317" t="s">
-        <v>262</v>
+        <v>424</v>
       </c>
       <c r="C317">
-        <v>1486957</v>
+        <v>1370637</v>
       </c>
       <c r="D317">
-        <v>1687738000</v>
+        <v>441231000</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
@@ -6207,13 +6143,13 @@
         <v>2017</v>
       </c>
       <c r="B318" t="s">
-        <v>409</v>
+        <v>262</v>
       </c>
       <c r="C318">
-        <v>216228</v>
+        <v>1177394</v>
       </c>
       <c r="D318">
-        <v>2585300000</v>
+        <v>17045700000</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
@@ -6224,10 +6160,10 @@
         <v>263</v>
       </c>
       <c r="C319">
-        <v>5513</v>
+        <v>861878</v>
       </c>
       <c r="D319">
-        <v>11286800000</v>
+        <v>3580700000</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
@@ -6238,10 +6174,10 @@
         <v>264</v>
       </c>
       <c r="C320">
-        <v>67716</v>
+        <v>105016</v>
       </c>
       <c r="D320">
-        <v>4443351000</v>
+        <v>4341955000</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
@@ -6252,10 +6188,10 @@
         <v>265</v>
       </c>
       <c r="C321">
-        <v>1022671</v>
+        <v>1002517</v>
       </c>
       <c r="D321">
-        <v>9538797000</v>
+        <v>1939362000</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
@@ -6266,10 +6202,10 @@
         <v>266</v>
       </c>
       <c r="C322">
-        <v>1616707</v>
+        <v>701985</v>
       </c>
       <c r="D322">
-        <v>4720895000</v>
+        <v>4823000000</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
@@ -6280,10 +6216,10 @@
         <v>267</v>
       </c>
       <c r="C323">
-        <v>1616862</v>
+        <v>1045450</v>
       </c>
       <c r="D323">
-        <v>4377000000</v>
+        <v>575991000</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
@@ -6294,10 +6230,10 @@
         <v>268</v>
       </c>
       <c r="C324">
-        <v>1597033</v>
+        <v>71691</v>
       </c>
       <c r="D324">
-        <v>881862000</v>
+        <v>1675639000</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
@@ -6308,10 +6244,10 @@
         <v>269</v>
       </c>
       <c r="C325">
-        <v>58492</v>
+        <v>939767</v>
       </c>
       <c r="D325">
-        <v>3943800000</v>
+        <v>452477000</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
@@ -6322,10 +6258,10 @@
         <v>270</v>
       </c>
       <c r="C326">
-        <v>1617640</v>
+        <v>944695</v>
       </c>
       <c r="D326">
-        <v>1076794000</v>
+        <v>5184400000</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
@@ -6333,13 +6269,13 @@
         <v>2017</v>
       </c>
       <c r="B327" t="s">
-        <v>410</v>
+        <v>271</v>
       </c>
       <c r="C327">
-        <v>25232</v>
+        <v>1214816</v>
       </c>
       <c r="D327">
-        <v>466185000</v>
+        <v>4591595000</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
@@ -6347,13 +6283,13 @@
         <v>2017</v>
       </c>
       <c r="B328" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C328">
-        <v>898293</v>
+        <v>350797</v>
       </c>
       <c r="D328">
-        <v>19063121000</v>
+        <v>1529010000</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
@@ -6361,13 +6297,13 @@
         <v>2017</v>
       </c>
       <c r="B329" t="s">
-        <v>272</v>
+        <v>392</v>
       </c>
       <c r="C329">
-        <v>1037038</v>
+        <v>793952</v>
       </c>
       <c r="D329">
-        <v>6652800000</v>
+        <v>5647224000</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
@@ -6378,10 +6314,10 @@
         <v>273</v>
       </c>
       <c r="C330">
-        <v>935494</v>
+        <v>794367</v>
       </c>
       <c r="D330">
-        <v>1289386000</v>
+        <v>25778000000</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
@@ -6389,13 +6325,13 @@
         <v>2017</v>
       </c>
       <c r="B331" t="s">
-        <v>411</v>
+        <v>274</v>
       </c>
       <c r="C331">
-        <v>726958</v>
+        <v>1359841</v>
       </c>
       <c r="D331">
-        <v>7506587000</v>
+        <v>1645175000</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.35">
@@ -6403,13 +6339,13 @@
         <v>2017</v>
       </c>
       <c r="B332" t="s">
-        <v>448</v>
+        <v>275</v>
       </c>
       <c r="C332">
-        <v>1618732</v>
+        <v>354707</v>
       </c>
       <c r="D332">
-        <v>226102000</v>
+        <v>2555625000</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
@@ -6417,13 +6353,13 @@
         <v>2017</v>
       </c>
       <c r="B333" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C333">
-        <v>91767</v>
+        <v>1518832</v>
       </c>
       <c r="D333">
-        <v>5036650000</v>
+        <v>1336000000</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
@@ -6431,13 +6367,13 @@
         <v>2017</v>
       </c>
       <c r="B334" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="C334">
-        <v>1378992</v>
+        <v>1475922</v>
       </c>
       <c r="D334">
-        <v>1881000000</v>
+        <v>1689102000</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
@@ -6445,13 +6381,13 @@
         <v>2017</v>
       </c>
       <c r="B335" t="s">
-        <v>449</v>
+        <v>277</v>
       </c>
       <c r="C335">
-        <v>1370637</v>
+        <v>36966</v>
       </c>
       <c r="D335">
-        <v>441231000</v>
+        <v>1332533000</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
@@ -6459,13 +6395,13 @@
         <v>2017</v>
       </c>
       <c r="B336" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C336">
-        <v>1177394</v>
+        <v>14930</v>
       </c>
       <c r="D336">
-        <v>17045700000</v>
+        <v>4510000000</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
@@ -6473,13 +6409,13 @@
         <v>2017</v>
       </c>
       <c r="B337" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C337">
-        <v>861878</v>
+        <v>1594109</v>
       </c>
       <c r="D337">
-        <v>3580700000</v>
+        <v>683067000</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
@@ -6487,13 +6423,13 @@
         <v>2017</v>
       </c>
       <c r="B338" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C338">
-        <v>105016</v>
+        <v>1439404</v>
       </c>
       <c r="D338">
-        <v>4341955000</v>
+        <v>861390000</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
@@ -6501,13 +6437,13 @@
         <v>2017</v>
       </c>
       <c r="B339" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C339">
-        <v>1002517</v>
+        <v>876437</v>
       </c>
       <c r="D339">
-        <v>1939362000</v>
+        <v>1066054000</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
@@ -6515,13 +6451,13 @@
         <v>2017</v>
       </c>
       <c r="B340" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C340">
-        <v>701985</v>
+        <v>1111928</v>
       </c>
       <c r="D340">
-        <v>4823000000</v>
+        <v>1408889000</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
@@ -6529,13 +6465,13 @@
         <v>2017</v>
       </c>
       <c r="B341" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C341">
-        <v>1045450</v>
+        <v>1056696</v>
       </c>
       <c r="D341">
-        <v>575991000</v>
+        <v>594599000</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
@@ -6543,13 +6479,13 @@
         <v>2017</v>
       </c>
       <c r="B342" t="s">
-        <v>281</v>
+        <v>394</v>
       </c>
       <c r="C342">
-        <v>71691</v>
+        <v>1498828</v>
       </c>
       <c r="D342">
-        <v>1675639000</v>
+        <v>1100120000</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
@@ -6557,13 +6493,13 @@
         <v>2017</v>
       </c>
       <c r="B343" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C343">
-        <v>939767</v>
+        <v>63276</v>
       </c>
       <c r="D343">
-        <v>452477000</v>
+        <v>4881951000</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.35">
@@ -6571,13 +6507,13 @@
         <v>2017</v>
       </c>
       <c r="B344" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C344">
-        <v>944695</v>
+        <v>825542</v>
       </c>
       <c r="D344">
-        <v>5184400000</v>
+        <v>376700000</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
@@ -6585,13 +6521,13 @@
         <v>2017</v>
       </c>
       <c r="B345" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C345">
-        <v>1214816</v>
+        <v>46619</v>
       </c>
       <c r="D345">
-        <v>4591595000</v>
+        <v>1524813000</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
@@ -6599,13 +6535,13 @@
         <v>2017</v>
       </c>
       <c r="B346" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C346">
-        <v>350797</v>
+        <v>1699150</v>
       </c>
       <c r="D346">
-        <v>1529010000</v>
+        <v>2375400000</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
@@ -6613,13 +6549,13 @@
         <v>2017</v>
       </c>
       <c r="B347" t="s">
-        <v>413</v>
+        <v>288</v>
       </c>
       <c r="C347">
-        <v>793952</v>
+        <v>1487712</v>
       </c>
       <c r="D347">
-        <v>5647224000</v>
+        <v>1516380000</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
@@ -6627,13 +6563,13 @@
         <v>2017</v>
       </c>
       <c r="B348" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C348">
-        <v>794367</v>
+        <v>1437107</v>
       </c>
       <c r="D348">
-        <v>25778000000</v>
+        <v>6873000000</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
@@ -6641,13 +6577,13 @@
         <v>2017</v>
       </c>
       <c r="B349" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C349">
-        <v>1359841</v>
+        <v>1307954</v>
       </c>
       <c r="D349">
-        <v>1645175000</v>
+        <v>8358000000</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
@@ -6655,13 +6591,13 @@
         <v>2017</v>
       </c>
       <c r="B350" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C350">
-        <v>944314</v>
+        <v>1591698</v>
       </c>
       <c r="D350">
-        <v>1645175000</v>
+        <v>300010000</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
@@ -6669,13 +6605,13 @@
         <v>2017</v>
       </c>
       <c r="B351" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C351">
-        <v>1308606</v>
+        <v>46765</v>
       </c>
       <c r="D351">
-        <v>1645175000</v>
+        <v>1804741000</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
@@ -6683,13 +6619,13 @@
         <v>2017</v>
       </c>
       <c r="B352" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C352">
-        <v>354707</v>
+        <v>1685040</v>
       </c>
       <c r="D352">
-        <v>2555625000</v>
+        <v>6842000000</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
@@ -6697,13 +6633,13 @@
         <v>2017</v>
       </c>
       <c r="B353" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C353">
-        <v>1518832</v>
+        <v>885550</v>
       </c>
       <c r="D353">
-        <v>1336000000</v>
+        <v>1110000000</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
@@ -6711,13 +6647,13 @@
         <v>2017</v>
       </c>
       <c r="B354" t="s">
-        <v>414</v>
+        <v>295</v>
       </c>
       <c r="C354">
-        <v>1475922</v>
+        <v>1308547</v>
       </c>
       <c r="D354">
-        <v>1689102000</v>
+        <v>1081454000</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
@@ -6725,13 +6661,13 @@
         <v>2017</v>
       </c>
       <c r="B355" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C355">
-        <v>36966</v>
+        <v>25445</v>
       </c>
       <c r="D355">
-        <v>1332533000</v>
+        <v>2786000000</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.35">
@@ -6739,13 +6675,13 @@
         <v>2017</v>
       </c>
       <c r="B356" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C356">
-        <v>14930</v>
+        <v>853816</v>
       </c>
       <c r="D356">
-        <v>4510000000</v>
+        <v>3646364000</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
@@ -6753,13 +6689,13 @@
         <v>2017</v>
       </c>
       <c r="B357" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C357">
-        <v>1594109</v>
+        <v>1311370</v>
       </c>
       <c r="D357">
-        <v>683067000</v>
+        <v>2697829000</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
@@ -6767,13 +6703,13 @@
         <v>2017</v>
       </c>
       <c r="B358" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C358">
-        <v>1439404</v>
+        <v>70866</v>
       </c>
       <c r="D358">
-        <v>861390000</v>
+        <v>6516000000</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
@@ -6781,13 +6717,13 @@
         <v>2017</v>
       </c>
       <c r="B359" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C359">
-        <v>876437</v>
+        <v>1273813</v>
       </c>
       <c r="D359">
-        <v>1066054000</v>
+        <v>1739000000</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
@@ -6795,13 +6731,13 @@
         <v>2017</v>
       </c>
       <c r="B360" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C360">
-        <v>1111928</v>
+        <v>822818</v>
       </c>
       <c r="D360">
-        <v>1408889000</v>
+        <v>747403000</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
@@ -6809,13 +6745,13 @@
         <v>2017</v>
       </c>
       <c r="B361" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C361">
-        <v>1056696</v>
+        <v>850209</v>
       </c>
       <c r="D361">
-        <v>594599000</v>
+        <v>7782000000</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
@@ -6823,13 +6759,13 @@
         <v>2017</v>
       </c>
       <c r="B362" t="s">
-        <v>415</v>
+        <v>303</v>
       </c>
       <c r="C362">
-        <v>1498828</v>
+        <v>1579877</v>
       </c>
       <c r="D362">
-        <v>1100120000</v>
+        <v>1520500000</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
@@ -6837,13 +6773,13 @@
         <v>2017</v>
       </c>
       <c r="B363" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C363">
-        <v>63276</v>
+        <v>1082554</v>
       </c>
       <c r="D363">
-        <v>4881951000</v>
+        <v>1725300000</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
@@ -6851,13 +6787,13 @@
         <v>2017</v>
       </c>
       <c r="B364" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C364">
-        <v>825542</v>
+        <v>1274494</v>
       </c>
       <c r="D364">
-        <v>376700000</v>
+        <v>2941324000</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
@@ -6865,13 +6801,13 @@
         <v>2017</v>
       </c>
       <c r="B365" t="s">
-        <v>301</v>
+        <v>425</v>
       </c>
       <c r="C365">
-        <v>46619</v>
+        <v>1474432</v>
       </c>
       <c r="D365">
-        <v>1524813000</v>
+        <v>1023019000</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
@@ -6879,13 +6815,13 @@
         <v>2017</v>
       </c>
       <c r="B366" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C366">
-        <v>1699150</v>
+        <v>1101215</v>
       </c>
       <c r="D366">
-        <v>2375400000</v>
+        <v>7719400000</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
@@ -6893,13 +6829,13 @@
         <v>2017</v>
       </c>
       <c r="B367" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C367">
-        <v>1487712</v>
+        <v>1180262</v>
       </c>
       <c r="D367">
-        <v>1516380000</v>
+        <v>4427700000</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.35">
@@ -6907,13 +6843,13 @@
         <v>2017</v>
       </c>
       <c r="B368" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C368">
-        <v>1437107</v>
+        <v>1206264</v>
       </c>
       <c r="D368">
-        <v>6873000000</v>
+        <v>648200000</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
@@ -6921,13 +6857,13 @@
         <v>2017</v>
       </c>
       <c r="B369" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C369">
-        <v>1307954</v>
+        <v>30697</v>
       </c>
       <c r="D369">
-        <v>8358000000</v>
+        <v>1223408000</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
@@ -6935,13 +6871,13 @@
         <v>2017</v>
       </c>
       <c r="B370" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C370">
-        <v>1591698</v>
+        <v>1420302</v>
       </c>
       <c r="D370">
-        <v>300010000</v>
+        <v>989786000</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
@@ -6949,13 +6885,13 @@
         <v>2017</v>
       </c>
       <c r="B371" t="s">
-        <v>307</v>
+        <v>395</v>
       </c>
       <c r="C371">
-        <v>46765</v>
+        <v>1690820</v>
       </c>
       <c r="D371">
-        <v>1804741000</v>
+        <v>858870000</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
@@ -6963,13 +6899,13 @@
         <v>2017</v>
       </c>
       <c r="B372" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C372">
-        <v>1685040</v>
+        <v>39911</v>
       </c>
       <c r="D372">
-        <v>6842000000</v>
+        <v>15855000000</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -6977,13 +6913,13 @@
         <v>2017</v>
       </c>
       <c r="B373" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C373">
-        <v>885550</v>
+        <v>906709</v>
       </c>
       <c r="D373">
-        <v>1110000000</v>
+        <v>307711000</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
@@ -6991,13 +6927,13 @@
         <v>2017</v>
       </c>
       <c r="B374" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C374">
-        <v>1308547</v>
+        <v>883984</v>
       </c>
       <c r="D374">
-        <v>1081454000</v>
+        <v>1292613000</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
@@ -7005,13 +6941,13 @@
         <v>2017</v>
       </c>
       <c r="B375" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C375">
-        <v>25445</v>
+        <v>8858</v>
       </c>
       <c r="D375">
-        <v>2786000000</v>
+        <v>17439963000</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
@@ -7019,13 +6955,13 @@
         <v>2017</v>
       </c>
       <c r="B376" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C376">
-        <v>853816</v>
+        <v>21510</v>
       </c>
       <c r="D376">
-        <v>3646364000</v>
+        <v>1723311000</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
@@ -7033,13 +6969,13 @@
         <v>2017</v>
       </c>
       <c r="B377" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C377">
-        <v>1311370</v>
+        <v>1045309</v>
       </c>
       <c r="D377">
-        <v>2697829000</v>
+        <v>1716500000</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
@@ -7047,13 +6983,13 @@
         <v>2017</v>
       </c>
       <c r="B378" t="s">
-        <v>314</v>
+        <v>396</v>
       </c>
       <c r="C378">
-        <v>70866</v>
+        <v>776867</v>
       </c>
       <c r="D378">
-        <v>6516000000</v>
+        <v>373800000</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
@@ -7061,13 +6997,13 @@
         <v>2017</v>
       </c>
       <c r="B379" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C379">
-        <v>1273813</v>
+        <v>1046311</v>
       </c>
       <c r="D379">
-        <v>1739000000</v>
+        <v>1007356000</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
@@ -7075,13 +7011,13 @@
         <v>2017</v>
       </c>
       <c r="B380" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C380">
-        <v>822818</v>
+        <v>1507079</v>
       </c>
       <c r="D380">
-        <v>747403000</v>
+        <v>1384767000</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
@@ -7089,13 +7025,13 @@
         <v>2017</v>
       </c>
       <c r="B381" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C381">
-        <v>850209</v>
+        <v>1420800</v>
       </c>
       <c r="D381">
-        <v>7782000000</v>
+        <v>3300184000</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
@@ -7103,13 +7039,13 @@
         <v>2017</v>
       </c>
       <c r="B382" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C382">
-        <v>1579877</v>
+        <v>704051</v>
       </c>
       <c r="D382">
-        <v>1520500000</v>
+        <v>2886902000</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
@@ -7117,13 +7053,13 @@
         <v>2017</v>
       </c>
       <c r="B383" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C383">
-        <v>1082554</v>
+        <v>1385280</v>
       </c>
       <c r="D383">
-        <v>1725300000</v>
+        <v>2991547000</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
@@ -7131,13 +7067,13 @@
         <v>2017</v>
       </c>
       <c r="B384" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C384">
-        <v>1274494</v>
+        <v>860546</v>
       </c>
       <c r="D384">
-        <v>2941324000</v>
+        <v>612820000</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
@@ -7145,13 +7081,13 @@
         <v>2017</v>
       </c>
       <c r="B385" t="s">
-        <v>450</v>
+        <v>323</v>
       </c>
       <c r="C385">
-        <v>1474432</v>
+        <v>912242</v>
       </c>
       <c r="D385">
-        <v>1023019000</v>
+        <v>993662000</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
@@ -7159,13 +7095,13 @@
         <v>2017</v>
       </c>
       <c r="B386" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C386">
-        <v>1101215</v>
+        <v>1013857</v>
       </c>
       <c r="D386">
-        <v>7719400000</v>
+        <v>840582000</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
@@ -7173,13 +7109,13 @@
         <v>2017</v>
       </c>
       <c r="B387" t="s">
-        <v>322</v>
+        <v>397</v>
       </c>
       <c r="C387">
-        <v>1180262</v>
+        <v>1289790</v>
       </c>
       <c r="D387">
-        <v>4427700000</v>
+        <v>1814713000</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
@@ -7187,13 +7123,13 @@
         <v>2017</v>
       </c>
       <c r="B388" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C388">
-        <v>1206264</v>
+        <v>4457</v>
       </c>
       <c r="D388">
-        <v>648200000</v>
+        <v>3421767000</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
@@ -7201,13 +7137,13 @@
         <v>2017</v>
       </c>
       <c r="B389" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C389">
-        <v>30697</v>
+        <v>1468174</v>
       </c>
       <c r="D389">
-        <v>1223408000</v>
+        <v>4685000000</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
@@ -7215,13 +7151,13 @@
         <v>2017</v>
       </c>
       <c r="B390" t="s">
-        <v>325</v>
+        <v>426</v>
       </c>
       <c r="C390">
-        <v>1420302</v>
+        <v>1370880</v>
       </c>
       <c r="D390">
-        <v>989786000</v>
+        <v>751086000</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
@@ -7229,13 +7165,13 @@
         <v>2017</v>
       </c>
       <c r="B391" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="C391">
-        <v>1690820</v>
+        <v>1003078</v>
       </c>
       <c r="D391">
-        <v>858870000</v>
+        <v>2887744000</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
@@ -7243,13 +7179,13 @@
         <v>2017</v>
       </c>
       <c r="B392" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C392">
-        <v>39911</v>
+        <v>1448056</v>
       </c>
       <c r="D392">
-        <v>15855000000</v>
+        <v>263479000</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
@@ -7257,13 +7193,13 @@
         <v>2017</v>
       </c>
       <c r="B393" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C393">
-        <v>906709</v>
+        <v>1289419</v>
       </c>
       <c r="D393">
-        <v>307711000</v>
+        <v>911700000</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
@@ -7271,13 +7207,13 @@
         <v>2017</v>
       </c>
       <c r="B394" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C394">
-        <v>883984</v>
+        <v>1360901</v>
       </c>
       <c r="D394">
-        <v>1292613000</v>
+        <v>1575168000</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -7285,13 +7221,13 @@
         <v>2017</v>
       </c>
       <c r="B395" t="s">
-        <v>329</v>
+        <v>427</v>
       </c>
       <c r="C395">
-        <v>8858</v>
+        <v>1526520</v>
       </c>
       <c r="D395">
-        <v>17439963000</v>
+        <v>1556000000</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
@@ -7299,13 +7235,13 @@
         <v>2017</v>
       </c>
       <c r="B396" t="s">
-        <v>330</v>
+        <v>428</v>
       </c>
       <c r="C396">
-        <v>21510</v>
+        <v>701374</v>
       </c>
       <c r="D396">
-        <v>1723311000</v>
+        <v>1359074000</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
@@ -7316,10 +7252,10 @@
         <v>331</v>
       </c>
       <c r="C397">
-        <v>1045309</v>
+        <v>1451505</v>
       </c>
       <c r="D397">
-        <v>1716500000</v>
+        <v>2973000000</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
@@ -7327,13 +7263,13 @@
         <v>2017</v>
       </c>
       <c r="B398" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
       <c r="C398">
-        <v>776867</v>
+        <v>1439222</v>
       </c>
       <c r="D398">
-        <v>373800000</v>
+        <v>43011000</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
@@ -7341,13 +7277,13 @@
         <v>2017</v>
       </c>
       <c r="B399" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C399">
-        <v>1046311</v>
+        <v>1282637</v>
       </c>
       <c r="D399">
-        <v>1007356000</v>
+        <v>2198404000</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
@@ -7355,13 +7291,13 @@
         <v>2017</v>
       </c>
       <c r="B400" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C400">
-        <v>1507079</v>
+        <v>1089063</v>
       </c>
       <c r="D400">
-        <v>1384767000</v>
+        <v>8590472000</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
@@ -7369,13 +7305,13 @@
         <v>2017</v>
       </c>
       <c r="B401" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C401">
-        <v>1420800</v>
+        <v>1124198</v>
       </c>
       <c r="D401">
-        <v>3300184000</v>
+        <v>19520970000</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
@@ -7383,13 +7319,13 @@
         <v>2017</v>
       </c>
       <c r="B402" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C402">
-        <v>704051</v>
+        <v>74303</v>
       </c>
       <c r="D402">
-        <v>2886902000</v>
+        <v>1619900000</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
@@ -7397,13 +7333,13 @@
         <v>2017</v>
       </c>
       <c r="B403" t="s">
-        <v>336</v>
+        <v>398</v>
       </c>
       <c r="C403">
-        <v>1385280</v>
+        <v>101830</v>
       </c>
       <c r="D403">
-        <v>2991547000</v>
+        <v>33347000000</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
@@ -7414,10 +7350,10 @@
         <v>337</v>
       </c>
       <c r="C404">
-        <v>860546</v>
+        <v>1320695</v>
       </c>
       <c r="D404">
-        <v>612820000</v>
+        <v>6307100000</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
@@ -7428,10 +7364,10 @@
         <v>338</v>
       </c>
       <c r="C405">
-        <v>912242</v>
+        <v>1252849</v>
       </c>
       <c r="D405">
-        <v>993662000</v>
+        <v>71625000</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
@@ -7439,13 +7375,13 @@
         <v>2017</v>
       </c>
       <c r="B406" t="s">
-        <v>339</v>
+        <v>399</v>
       </c>
       <c r="C406">
-        <v>717423</v>
+        <v>350698</v>
       </c>
       <c r="D406">
-        <v>993662000</v>
+        <v>21534600000</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
@@ -7453,13 +7389,13 @@
         <v>2017</v>
       </c>
       <c r="B407" t="s">
-        <v>340</v>
+        <v>429</v>
       </c>
       <c r="C407">
-        <v>1013857</v>
+        <v>19446</v>
       </c>
       <c r="D407">
-        <v>840582000</v>
+        <v>770157000</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
@@ -7467,13 +7403,13 @@
         <v>2017</v>
       </c>
       <c r="B408" t="s">
-        <v>418</v>
+        <v>339</v>
       </c>
       <c r="C408">
-        <v>1289790</v>
+        <v>104889</v>
       </c>
       <c r="D408">
-        <v>1814713000</v>
+        <v>675817000</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
@@ -7481,13 +7417,13 @@
         <v>2017</v>
       </c>
       <c r="B409" t="s">
-        <v>419</v>
+        <v>340</v>
       </c>
       <c r="C409">
-        <v>1345105</v>
+        <v>1262823</v>
       </c>
       <c r="D409">
-        <v>1814713000</v>
+        <v>8041000000</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
@@ -7498,10 +7434,10 @@
         <v>341</v>
       </c>
       <c r="C410">
-        <v>4457</v>
+        <v>99780</v>
       </c>
       <c r="D410">
-        <v>3421767000</v>
+        <v>3662800000</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.35">
@@ -7509,13 +7445,13 @@
         <v>2017</v>
       </c>
       <c r="B411" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="C411">
-        <v>1468174</v>
+        <v>1091907</v>
       </c>
       <c r="D411">
-        <v>4685000000</v>
+        <v>800959000</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
@@ -7523,13 +7459,13 @@
         <v>2017</v>
       </c>
       <c r="B412" t="s">
-        <v>451</v>
+        <v>342</v>
       </c>
       <c r="C412">
-        <v>1370880</v>
+        <v>929008</v>
       </c>
       <c r="D412">
-        <v>751086000</v>
+        <v>7679021000</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
@@ -7540,10 +7476,10 @@
         <v>343</v>
       </c>
       <c r="C413">
-        <v>1003078</v>
+        <v>1541401</v>
       </c>
       <c r="D413">
-        <v>2887744000</v>
+        <v>183070000</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
@@ -7554,10 +7490,10 @@
         <v>344</v>
       </c>
       <c r="C414">
-        <v>1448056</v>
+        <v>910406</v>
       </c>
       <c r="D414">
-        <v>263479000</v>
+        <v>2853111000</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.35">
@@ -7568,10 +7504,10 @@
         <v>345</v>
       </c>
       <c r="C415">
-        <v>1289419</v>
+        <v>1509991</v>
       </c>
       <c r="D415">
-        <v>911700000</v>
+        <v>636836000</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
@@ -7579,13 +7515,13 @@
         <v>2017</v>
       </c>
       <c r="B416" t="s">
-        <v>346</v>
+        <v>430</v>
       </c>
       <c r="C416">
-        <v>1360901</v>
+        <v>1021561</v>
       </c>
       <c r="D416">
-        <v>1575168000</v>
+        <v>2279099000</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
@@ -7593,13 +7529,13 @@
         <v>2017</v>
       </c>
       <c r="B417" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="C417">
-        <v>1526520</v>
+        <v>1415404</v>
       </c>
       <c r="D417">
-        <v>1556000000</v>
+        <v>1885508000</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.35">
@@ -7607,13 +7543,13 @@
         <v>2017</v>
       </c>
       <c r="B418" t="s">
-        <v>453</v>
+        <v>401</v>
       </c>
       <c r="C418">
-        <v>701374</v>
+        <v>1577916</v>
       </c>
       <c r="D418">
-        <v>1359074000</v>
+        <v>1454673000</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
@@ -7621,13 +7557,13 @@
         <v>2017</v>
       </c>
       <c r="B419" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C419">
-        <v>1451505</v>
+        <v>912752</v>
       </c>
       <c r="D419">
-        <v>2973000000</v>
+        <v>2734118000</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
@@ -7635,13 +7571,13 @@
         <v>2017</v>
       </c>
       <c r="B420" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C420">
-        <v>1439222</v>
+        <v>912615</v>
       </c>
       <c r="D420">
-        <v>43011000</v>
+        <v>3545794000</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
@@ -7649,13 +7585,13 @@
         <v>2017</v>
       </c>
       <c r="B421" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C421">
-        <v>1282637</v>
+        <v>1094831</v>
       </c>
       <c r="D421">
-        <v>2198404000</v>
+        <v>3353356000</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
@@ -7663,13 +7599,13 @@
         <v>2017</v>
       </c>
       <c r="B422" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C422">
-        <v>1089063</v>
+        <v>1514991</v>
       </c>
       <c r="D422">
-        <v>8590472000</v>
+        <v>2805691000</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.35">
@@ -7677,13 +7613,13 @@
         <v>2017</v>
       </c>
       <c r="B423" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C423">
-        <v>1639300</v>
+        <v>889900</v>
       </c>
       <c r="D423">
-        <v>8590472000</v>
+        <v>2356684000</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
@@ -7691,13 +7627,13 @@
         <v>2017</v>
       </c>
       <c r="B424" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C424">
-        <v>1124198</v>
+        <v>1163302</v>
       </c>
       <c r="D424">
-        <v>19520970000</v>
+        <v>12250000000</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
@@ -7705,13 +7641,13 @@
         <v>2017</v>
       </c>
       <c r="B425" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C425">
-        <v>74303</v>
+        <v>64996</v>
       </c>
       <c r="D425">
-        <v>1619900000</v>
+        <v>3415962000</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
@@ -7719,13 +7655,13 @@
         <v>2017</v>
       </c>
       <c r="B426" t="s">
-        <v>420</v>
+        <v>353</v>
       </c>
       <c r="C426">
-        <v>101830</v>
+        <v>21175</v>
       </c>
       <c r="D426">
-        <v>33347000000</v>
+        <v>9542000000</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.35">
@@ -7736,10 +7672,10 @@
         <v>354</v>
       </c>
       <c r="C427">
-        <v>1320695</v>
+        <v>904163</v>
       </c>
       <c r="D427">
-        <v>6307100000</v>
+        <v>3411000000</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
@@ -7750,10 +7686,10 @@
         <v>355</v>
       </c>
       <c r="C428">
-        <v>1252849</v>
+        <v>895126</v>
       </c>
       <c r="D428">
-        <v>71625000</v>
+        <v>9496000000</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.35">
@@ -7761,366 +7697,19 @@
         <v>2017</v>
       </c>
       <c r="B429" t="s">
-        <v>421</v>
+        <v>356</v>
       </c>
       <c r="C429">
-        <v>350698</v>
+        <v>315852</v>
       </c>
       <c r="D429">
-        <v>21534600000</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A430">
-        <v>2017</v>
-      </c>
-      <c r="B430" t="s">
-        <v>454</v>
-      </c>
-      <c r="C430">
-        <v>19446</v>
-      </c>
-      <c r="D430">
-        <v>770157000</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A431">
-        <v>2017</v>
-      </c>
-      <c r="B431" t="s">
-        <v>356</v>
-      </c>
-      <c r="C431">
-        <v>104889</v>
-      </c>
-      <c r="D431">
-        <v>675817000</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A432">
-        <v>2017</v>
-      </c>
-      <c r="B432" t="s">
-        <v>357</v>
-      </c>
-      <c r="C432">
-        <v>1262823</v>
-      </c>
-      <c r="D432">
-        <v>8041000000</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A433">
-        <v>2017</v>
-      </c>
-      <c r="B433" t="s">
-        <v>358</v>
-      </c>
-      <c r="C433">
-        <v>99780</v>
-      </c>
-      <c r="D433">
-        <v>3662800000</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A434">
-        <v>2017</v>
-      </c>
-      <c r="B434" t="s">
-        <v>422</v>
-      </c>
-      <c r="C434">
-        <v>1091907</v>
-      </c>
-      <c r="D434">
-        <v>800959000</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A435">
-        <v>2017</v>
-      </c>
-      <c r="B435" t="s">
-        <v>359</v>
-      </c>
-      <c r="C435">
-        <v>929008</v>
-      </c>
-      <c r="D435">
-        <v>7679021000</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A436">
-        <v>2017</v>
-      </c>
-      <c r="B436" t="s">
-        <v>360</v>
-      </c>
-      <c r="C436">
-        <v>1541401</v>
-      </c>
-      <c r="D436">
-        <v>183070000</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A437">
-        <v>2017</v>
-      </c>
-      <c r="B437" t="s">
-        <v>361</v>
-      </c>
-      <c r="C437">
-        <v>910406</v>
-      </c>
-      <c r="D437">
-        <v>2853111000</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A438">
-        <v>2017</v>
-      </c>
-      <c r="B438" t="s">
-        <v>362</v>
-      </c>
-      <c r="C438">
-        <v>1509991</v>
-      </c>
-      <c r="D438">
-        <v>636836000</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A439">
-        <v>2017</v>
-      </c>
-      <c r="B439" t="s">
-        <v>455</v>
-      </c>
-      <c r="C439">
-        <v>1021561</v>
-      </c>
-      <c r="D439">
-        <v>2279099000</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A440">
-        <v>2017</v>
-      </c>
-      <c r="B440" t="s">
-        <v>456</v>
-      </c>
-      <c r="C440">
-        <v>1415404</v>
-      </c>
-      <c r="D440">
-        <v>1885508000</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A441">
-        <v>2017</v>
-      </c>
-      <c r="B441" t="s">
-        <v>423</v>
-      </c>
-      <c r="C441">
-        <v>1577916</v>
-      </c>
-      <c r="D441">
-        <v>1454673000</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A442">
-        <v>2017</v>
-      </c>
-      <c r="B442" t="s">
-        <v>363</v>
-      </c>
-      <c r="C442">
-        <v>912752</v>
-      </c>
-      <c r="D442">
-        <v>2734118000</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A443">
-        <v>2017</v>
-      </c>
-      <c r="B443" t="s">
-        <v>364</v>
-      </c>
-      <c r="C443">
-        <v>912615</v>
-      </c>
-      <c r="D443">
-        <v>3545794000</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A444">
-        <v>2017</v>
-      </c>
-      <c r="B444" t="s">
-        <v>365</v>
-      </c>
-      <c r="C444">
-        <v>1094831</v>
-      </c>
-      <c r="D444">
-        <v>3353356000</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A445">
-        <v>2017</v>
-      </c>
-      <c r="B445" t="s">
-        <v>366</v>
-      </c>
-      <c r="C445">
-        <v>1019849</v>
-      </c>
-      <c r="D445">
-        <v>3353356000</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A446">
-        <v>2017</v>
-      </c>
-      <c r="B446" t="s">
-        <v>367</v>
-      </c>
-      <c r="C446">
-        <v>1514991</v>
-      </c>
-      <c r="D446">
-        <v>2805691000</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A447">
-        <v>2017</v>
-      </c>
-      <c r="B447" t="s">
-        <v>368</v>
-      </c>
-      <c r="C447">
-        <v>889900</v>
-      </c>
-      <c r="D447">
-        <v>2356684000</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A448">
-        <v>2017</v>
-      </c>
-      <c r="B448" t="s">
-        <v>369</v>
-      </c>
-      <c r="C448">
-        <v>1163302</v>
-      </c>
-      <c r="D448">
-        <v>12250000000</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A449">
-        <v>2017</v>
-      </c>
-      <c r="B449" t="s">
-        <v>370</v>
-      </c>
-      <c r="C449">
-        <v>64996</v>
-      </c>
-      <c r="D449">
-        <v>3415962000</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A450">
-        <v>2017</v>
-      </c>
-      <c r="B450" t="s">
-        <v>371</v>
-      </c>
-      <c r="C450">
-        <v>21175</v>
-      </c>
-      <c r="D450">
-        <v>9542000000</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A451">
-        <v>2017</v>
-      </c>
-      <c r="B451" t="s">
-        <v>372</v>
-      </c>
-      <c r="C451">
-        <v>904163</v>
-      </c>
-      <c r="D451">
-        <v>3411000000</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A452">
-        <v>2017</v>
-      </c>
-      <c r="B452" t="s">
-        <v>373</v>
-      </c>
-      <c r="C452">
-        <v>895126</v>
-      </c>
-      <c r="D452">
-        <v>9496000000</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A453">
-        <v>2017</v>
-      </c>
-      <c r="B453" t="s">
-        <v>374</v>
-      </c>
-      <c r="C453">
-        <v>315852</v>
-      </c>
-      <c r="D453">
         <v>679032000</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A454">
-        <v>2017</v>
-      </c>
-      <c r="B454" t="s">
-        <v>375</v>
-      </c>
-      <c r="C454">
-        <v>1658566</v>
-      </c>
-      <c r="D454">
-        <v>679032000</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>